--- a/utils/rebalance_tools/blog_posts/March_2019.xlsx
+++ b/utils/rebalance_tools/blog_posts/March_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\Blog Posts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoin\Desktop\Mike\Bletch\bcindex\utils\rebalance_tools\blog_posts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC92B62B-59D4-48A1-9CB0-E672DD34A112}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E465E8-38B8-4431-8BEC-3440178476DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="510" windowWidth="22950" windowHeight="14730" tabRatio="889" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sharpe" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="58">
   <si>
     <t>ten</t>
   </si>
@@ -199,18 +199,6 @@
   </si>
   <si>
     <t>TRX</t>
-  </si>
-  <si>
-    <t>DASH LINK</t>
-  </si>
-  <si>
-    <t>SC TRX</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>LINK</t>
   </si>
   <si>
     <t>HOT RVN NULS</t>
@@ -419,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -675,9 +663,6 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -685,6 +670,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -740,7 +731,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ERC20</c:v>
+                  <c:v>ETH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -779,44 +770,24 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B69B-4A6D-9C7D-D169771B0AE9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="9"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -898,31 +869,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>ETH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>platform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ten</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>total</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>currency</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>twenty</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>forty</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>application</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ERC20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>application</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>twenty</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ETH</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>platform</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>forty</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>currency</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ten</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>BTC</c:v>
@@ -937,34 +908,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.107073</c:v>
+                  <c:v>-0.12877</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.1077</c:v>
+                  <c:v>-0.12256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11748500000000001</c:v>
+                  <c:v>-0.105154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.13253799999999999</c:v>
+                  <c:v>-0.103215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.137573</c:v>
+                  <c:v>-9.4979999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.123649</c:v>
+                  <c:v>-8.3468000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.7628000000000006E-2</c:v>
+                  <c:v>-8.8509000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.10847</c:v>
+                  <c:v>-7.4005000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.107289</c:v>
+                  <c:v>-7.0626999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.5490999999999994E-2</c:v>
+                  <c:v>-4.5527999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +980,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1042,14 +1013,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B69B-4A6D-9C7D-D169771B0AE9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1082,14 +1048,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1122,14 +1083,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1162,11 +1118,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-FE2C-423B-81EE-14D35782BCD9}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1310,31 +1261,31 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>ETH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>platform</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ten</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>total</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>currency</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>twenty</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>forty</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>application</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ERC20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>application</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>twenty</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ETH</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>platform</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>forty</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>currency</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>ten</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>BTC</c:v>
@@ -1349,34 +1300,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13431799999999999</c:v>
+                  <c:v>0.114955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.122128</c:v>
+                  <c:v>0.110015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8230999999999999E-2</c:v>
+                  <c:v>9.9001000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2645000000000005E-2</c:v>
+                  <c:v>9.7697000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3362000000000006E-2</c:v>
+                  <c:v>9.3064999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9027000000000005E-2</c:v>
+                  <c:v>8.9244000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4613000000000004E-2</c:v>
+                  <c:v>7.4505000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9887000000000003E-2</c:v>
+                  <c:v>6.9554000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6703999999999997E-2</c:v>
+                  <c:v>6.5363000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0626999999999998E-2</c:v>
+                  <c:v>4.5062999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,24 +1574,14 @@
           </c:spPr>
           <c:invertIfNegative val="1"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="1"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1745,7 +1686,7 @@
                   <c:v>LTC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>XRP</c:v>
+                  <c:v>EOS</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BCH</c:v>
@@ -1754,22 +1695,22 @@
                   <c:v>ETH</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>BSV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XLM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TRX</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ADA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZEC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>EOS</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DASH</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XLM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1781,34 +1722,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-0.103451</c:v>
+                  <c:v>-8.9640999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.3344000000000003E-2</c:v>
+                  <c:v>-0.120839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.121966</c:v>
+                  <c:v>-0.127891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.13253799999999999</c:v>
+                  <c:v>-0.12877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.0578000000000002E-2</c:v>
+                  <c:v>-8.9859999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.6000000000000003E-2</c:v>
+                  <c:v>-6.6581000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13519</c:v>
+                  <c:v>-0.10496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.5490999999999994E-2</c:v>
+                  <c:v>-5.6299000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.5936999999999999E-2</c:v>
+                  <c:v>-5.4752000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.7258999999999994E-2</c:v>
+                  <c:v>-4.5527999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +1794,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="0"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1886,14 +1827,9 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="1"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1926,11 +1862,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F721-4958-9E8B-9EAF816AE8F5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2157,7 +2088,7 @@
                   <c:v>LTC</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>XRP</c:v>
+                  <c:v>EOS</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>BCH</c:v>
@@ -2166,22 +2097,22 @@
                   <c:v>ETH</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>BSV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XLM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TRX</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XRP</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>ADA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>ZEC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>EOS</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>BTC</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>DASH</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>XLM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2193,34 +2124,34 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.115369</c:v>
+                  <c:v>0.23349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101243</c:v>
+                  <c:v>0.17960100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4320000000000001E-2</c:v>
+                  <c:v>0.12667600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2645000000000005E-2</c:v>
+                  <c:v>0.114955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2364000000000007E-2</c:v>
+                  <c:v>0.102308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6669000000000006E-2</c:v>
+                  <c:v>8.7387999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2416999999999998E-2</c:v>
+                  <c:v>8.0332000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0626999999999998E-2</c:v>
+                  <c:v>7.6641000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4553000000000002E-2</c:v>
+                  <c:v>5.8290000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1590000000000002E-2</c:v>
+                  <c:v>4.5062999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3778,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3972,34 +3903,34 @@
         <v>9</v>
       </c>
       <c r="C4" s="36">
-        <v>420.51159899999999</v>
+        <v>374.60394200000002</v>
       </c>
       <c r="D4" s="36">
-        <v>337.86228</v>
+        <v>313.47853900000001</v>
       </c>
       <c r="E4" s="36">
-        <v>54.644247</v>
+        <v>49.263316000000003</v>
       </c>
       <c r="F4" s="36">
-        <v>175.29008300000001</v>
+        <v>156.644587</v>
       </c>
       <c r="G4" s="36">
-        <v>22.237102</v>
+        <v>20.150811999999998</v>
       </c>
       <c r="H4" s="36">
-        <v>15.347474</v>
+        <v>13.096591</v>
       </c>
       <c r="I4" s="36">
-        <v>13.16878</v>
+        <v>14.062167000000001</v>
       </c>
       <c r="J4" s="36">
-        <v>39.924453999999997</v>
+        <v>43.673755</v>
       </c>
       <c r="K4" s="36">
-        <v>3812.0848599999999</v>
+        <v>3434.1590700000002</v>
       </c>
       <c r="L4" s="37">
-        <v>135.21562</v>
+        <v>106.9409</v>
       </c>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
@@ -4007,34 +3938,34 @@
         <v>9</v>
       </c>
       <c r="P4" s="3">
-        <v>420.51159899999999</v>
+        <v>374.60394200000002</v>
       </c>
       <c r="Q4" s="3">
-        <v>337.86228</v>
+        <v>313.47853900000001</v>
       </c>
       <c r="R4" s="3">
-        <v>54.644247</v>
+        <v>49.263316000000003</v>
       </c>
       <c r="S4" s="3">
-        <v>175.29008300000001</v>
+        <v>156.644587</v>
       </c>
       <c r="T4" s="3">
-        <v>22.237102</v>
+        <v>20.150811999999998</v>
       </c>
       <c r="U4" s="3">
-        <v>15.347474</v>
+        <v>13.096591</v>
       </c>
       <c r="V4" s="3">
-        <v>13.16878</v>
+        <v>14.062167000000001</v>
       </c>
       <c r="W4" s="3">
-        <v>39.924453999999997</v>
+        <v>43.673755</v>
       </c>
       <c r="X4" s="3">
-        <v>3812.0848599999999</v>
+        <v>3434.1590700000002</v>
       </c>
       <c r="Y4" s="3">
-        <v>135.21562</v>
+        <v>106.9409</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1">
@@ -4043,34 +3974,34 @@
         <v>10</v>
       </c>
       <c r="C5" s="38">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="D5" s="38">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="E5" s="38">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="F5" s="38">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="G5" s="38">
-        <v>20.150811999999998</v>
+        <v>22.516762</v>
       </c>
       <c r="H5" s="38">
-        <v>13.096591</v>
+        <v>15.764552999999999</v>
       </c>
       <c r="I5" s="38">
-        <v>14.062167000000001</v>
+        <v>17.515367999999999</v>
       </c>
       <c r="J5" s="38">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="K5" s="38">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="L5" s="39">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
       <c r="M5" s="75"/>
       <c r="N5" s="75"/>
@@ -4078,34 +4009,34 @@
         <v>10</v>
       </c>
       <c r="P5" s="5">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="Q5" s="5">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="R5" s="5">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="S5" s="5">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="T5" s="5">
-        <v>20.150811999999998</v>
+        <v>22.516762</v>
       </c>
       <c r="U5" s="5">
-        <v>13.096591</v>
+        <v>15.764552999999999</v>
       </c>
       <c r="V5" s="5">
-        <v>14.062167000000001</v>
+        <v>17.515367999999999</v>
       </c>
       <c r="W5" s="5">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="X5" s="5">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="Y5" s="5">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="27.75" thickBot="1">
@@ -4114,34 +4045,34 @@
         <v>11</v>
       </c>
       <c r="C6" s="36">
-        <v>63.755028000000003</v>
+        <v>67.025543999999996</v>
       </c>
       <c r="D6" s="36">
-        <v>81.209001000000001</v>
+        <v>62.029031000000003</v>
       </c>
       <c r="E6" s="36">
-        <v>76.623221999999998</v>
+        <v>56.191178000000001</v>
       </c>
       <c r="F6" s="36">
-        <v>64.873322000000002</v>
+        <v>66.002241999999995</v>
       </c>
       <c r="G6" s="36">
-        <v>57.900438000000001</v>
+        <v>60.891151999999998</v>
       </c>
       <c r="H6" s="36">
-        <v>83.392297999999997</v>
+        <v>82.038590999999997</v>
       </c>
       <c r="I6" s="36">
-        <v>85.934320999999997</v>
+        <v>52.589427999999998</v>
       </c>
       <c r="J6" s="36">
-        <v>90.411603999999997</v>
+        <v>52.100333999999997</v>
       </c>
       <c r="K6" s="36">
-        <v>39.672378999999999</v>
+        <v>38.151921999999999</v>
       </c>
       <c r="L6" s="40">
-        <v>80.754292000000007</v>
+        <v>83.226787000000002</v>
       </c>
       <c r="M6" s="75"/>
       <c r="N6" s="75"/>
@@ -4149,34 +4080,34 @@
         <v>11</v>
       </c>
       <c r="P6" s="3">
-        <v>63.755028000000003</v>
+        <v>67.025543999999996</v>
       </c>
       <c r="Q6" s="3">
-        <v>81.209001000000001</v>
+        <v>62.029031000000003</v>
       </c>
       <c r="R6" s="3">
-        <v>76.623221999999998</v>
+        <v>56.191178000000001</v>
       </c>
       <c r="S6" s="3">
-        <v>64.873322000000002</v>
+        <v>66.002241999999995</v>
       </c>
       <c r="T6" s="3">
-        <v>57.900438000000001</v>
+        <v>60.891151999999998</v>
       </c>
       <c r="U6" s="3">
-        <v>83.392297999999997</v>
+        <v>82.038590999999997</v>
       </c>
       <c r="V6" s="3">
-        <v>85.934320999999997</v>
+        <v>52.589427999999998</v>
       </c>
       <c r="W6" s="3">
-        <v>90.411603999999997</v>
+        <v>52.100333999999997</v>
       </c>
       <c r="X6" s="3">
-        <v>39.672378999999999</v>
+        <v>38.151921999999999</v>
       </c>
       <c r="Y6" s="3">
-        <v>80.754292000000007</v>
+        <v>83.226787000000002</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="24.75" thickBot="1">
@@ -4185,34 +4116,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="38">
-        <v>3.337091</v>
+        <v>3.5082770000000001</v>
       </c>
       <c r="D7" s="38">
-        <v>4.2506729999999999</v>
+        <v>3.2467480000000002</v>
       </c>
       <c r="E7" s="38">
-        <v>4.010643</v>
+        <v>2.9411809999999998</v>
       </c>
       <c r="F7" s="38">
-        <v>3.3956249999999999</v>
+        <v>3.4547150000000002</v>
       </c>
       <c r="G7" s="38">
-        <v>3.0306470000000001</v>
+        <v>3.187189</v>
       </c>
       <c r="H7" s="38">
-        <v>4.3649519999999997</v>
+        <v>4.2940959999999997</v>
       </c>
       <c r="I7" s="38">
-        <v>4.4980079999999996</v>
+        <v>2.752656</v>
       </c>
       <c r="J7" s="38">
-        <v>4.7323599999999999</v>
+        <v>2.7270560000000001</v>
       </c>
       <c r="K7" s="38">
-        <v>2.0765470000000001</v>
+        <v>1.996963</v>
       </c>
       <c r="L7" s="39">
-        <v>4.2268730000000003</v>
+        <v>4.3562890000000003</v>
       </c>
       <c r="M7" s="75"/>
       <c r="N7" s="75"/>
@@ -4220,34 +4151,34 @@
         <v>12</v>
       </c>
       <c r="P7" s="5">
-        <v>3.337091</v>
+        <v>3.5082770000000001</v>
       </c>
       <c r="Q7" s="5">
-        <v>4.2506729999999999</v>
+        <v>3.2467480000000002</v>
       </c>
       <c r="R7" s="5">
-        <v>4.010643</v>
+        <v>2.9411809999999998</v>
       </c>
       <c r="S7" s="5">
-        <v>3.3956249999999999</v>
+        <v>3.4547150000000002</v>
       </c>
       <c r="T7" s="5">
-        <v>3.0306470000000001</v>
+        <v>3.187189</v>
       </c>
       <c r="U7" s="5">
-        <v>4.3649519999999997</v>
+        <v>4.2940959999999997</v>
       </c>
       <c r="V7" s="5">
-        <v>4.4980079999999996</v>
+        <v>2.752656</v>
       </c>
       <c r="W7" s="5">
-        <v>4.7323599999999999</v>
+        <v>2.7270560000000001</v>
       </c>
       <c r="X7" s="5">
-        <v>2.0765470000000001</v>
+        <v>1.996963</v>
       </c>
       <c r="Y7" s="5">
-        <v>4.2268730000000003</v>
+        <v>4.3562890000000003</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1">
@@ -4256,34 +4187,34 @@
         <v>13</v>
       </c>
       <c r="C8" s="31">
-        <v>-0.109171</v>
+        <v>0.134302</v>
       </c>
       <c r="D8" s="31">
-        <v>-7.2170999999999999E-2</v>
+        <v>0.216664</v>
       </c>
       <c r="E8" s="31">
-        <v>-9.8472000000000004E-2</v>
+        <v>0.16317300000000001</v>
       </c>
       <c r="F8" s="31">
-        <v>-0.10636900000000001</v>
+        <v>0.14047000000000001</v>
       </c>
       <c r="G8" s="31">
-        <v>-9.3820000000000001E-2</v>
+        <v>0.117412</v>
       </c>
       <c r="H8" s="31">
-        <v>-0.14666100000000001</v>
+        <v>0.20371400000000001</v>
       </c>
       <c r="I8" s="31">
-        <v>6.7840999999999999E-2</v>
+        <v>0.24556700000000001</v>
       </c>
       <c r="J8" s="31">
-        <v>9.3909999999999993E-2</v>
+        <v>0.16489300000000001</v>
       </c>
       <c r="K8" s="31">
-        <v>-9.5979999999999996E-2</v>
+        <v>0.112299</v>
       </c>
       <c r="L8" s="35">
-        <v>-0.20433399999999999</v>
+        <v>0.27113999999999999</v>
       </c>
       <c r="M8" s="75"/>
       <c r="N8" s="75"/>
@@ -4291,34 +4222,34 @@
         <v>13</v>
       </c>
       <c r="P8" s="3">
-        <v>-0.109171</v>
+        <v>0.134302</v>
       </c>
       <c r="Q8" s="3">
-        <v>-7.2170999999999999E-2</v>
+        <v>0.216664</v>
       </c>
       <c r="R8" s="3">
-        <v>-9.8472000000000004E-2</v>
+        <v>0.16317300000000001</v>
       </c>
       <c r="S8" s="3">
-        <v>-0.10636900000000001</v>
+        <v>0.14047000000000001</v>
       </c>
       <c r="T8" s="3">
-        <v>-9.3820000000000001E-2</v>
+        <v>0.117412</v>
       </c>
       <c r="U8" s="3">
-        <v>-0.14666100000000001</v>
+        <v>0.20371400000000001</v>
       </c>
       <c r="V8" s="3">
-        <v>6.7840999999999999E-2</v>
+        <v>0.24556700000000001</v>
       </c>
       <c r="W8" s="3">
-        <v>9.3909999999999993E-2</v>
+        <v>0.16489300000000001</v>
       </c>
       <c r="X8" s="3">
-        <v>-9.5979999999999996E-2</v>
+        <v>0.112299</v>
       </c>
       <c r="Y8" s="3">
-        <v>-0.20433399999999999</v>
+        <v>0.27113999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1">
@@ -4327,34 +4258,34 @@
         <v>14</v>
       </c>
       <c r="C9" s="38">
-        <v>-2.5956160000000001</v>
+        <v>2.476499</v>
       </c>
       <c r="D9" s="38">
-        <v>-1.3810469999999999</v>
+        <v>3.594846</v>
       </c>
       <c r="E9" s="38">
-        <v>-2.017506</v>
+        <v>2.8304710000000002</v>
       </c>
       <c r="F9" s="38">
-        <v>-2.495142</v>
+        <v>2.5644309999999999</v>
       </c>
       <c r="G9" s="38">
-        <v>-2.5100319999999998</v>
+        <v>2.440604</v>
       </c>
       <c r="H9" s="38">
-        <v>-2.5601530000000001</v>
+        <v>2.8494299999999999</v>
       </c>
       <c r="I9" s="38">
-        <v>0.74608799999999997</v>
+        <v>4.7300930000000001</v>
       </c>
       <c r="J9" s="38">
-        <v>0.96530800000000005</v>
+        <v>2.9362539999999999</v>
       </c>
       <c r="K9" s="38">
-        <v>-2.948779</v>
+        <v>3.756348</v>
       </c>
       <c r="L9" s="39">
-        <v>-3.3715630000000001</v>
+        <v>3.9916330000000002</v>
       </c>
       <c r="M9" s="75"/>
       <c r="N9" s="75"/>
@@ -4362,34 +4293,34 @@
         <v>14</v>
       </c>
       <c r="P9" s="5">
-        <v>-2.5956160000000001</v>
+        <v>2.476499</v>
       </c>
       <c r="Q9" s="5">
-        <v>-1.3810469999999999</v>
+        <v>3.594846</v>
       </c>
       <c r="R9" s="5">
-        <v>-2.017506</v>
+        <v>2.8304710000000002</v>
       </c>
       <c r="S9" s="5">
-        <v>-2.495142</v>
+        <v>2.5644309999999999</v>
       </c>
       <c r="T9" s="5">
-        <v>-2.5100319999999998</v>
+        <v>2.440604</v>
       </c>
       <c r="U9" s="5">
-        <v>-2.5601530000000001</v>
+        <v>2.8494299999999999</v>
       </c>
       <c r="V9" s="5">
-        <v>0.74608799999999997</v>
+        <v>4.7300930000000001</v>
       </c>
       <c r="W9" s="5">
-        <v>0.96530800000000005</v>
+        <v>2.9362539999999999</v>
       </c>
       <c r="X9" s="5">
-        <v>-2.948779</v>
+        <v>3.756348</v>
       </c>
       <c r="Y9" s="5">
-        <v>-3.3715630000000001</v>
+        <v>3.9916330000000002</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1">
@@ -4398,34 +4329,34 @@
         <v>38</v>
       </c>
       <c r="C10" s="36">
-        <v>-1.311377</v>
+        <v>0.55799500000000002</v>
       </c>
       <c r="D10" s="36">
-        <v>9.6531000000000006E-2</v>
+        <v>2.1579929999999998</v>
       </c>
       <c r="E10" s="36">
-        <v>-0.80310499999999996</v>
+        <v>0.465785</v>
       </c>
       <c r="F10" s="36">
-        <v>-1.1823030000000001</v>
+        <v>0.65068000000000004</v>
       </c>
       <c r="G10" s="36">
-        <v>-0.88326300000000002</v>
+        <v>0.14308399999999999</v>
       </c>
       <c r="H10" s="36">
-        <v>-1.834711</v>
+        <v>1.897643</v>
       </c>
       <c r="I10" s="36">
-        <v>3.7926920000000002</v>
+        <v>3.232488</v>
       </c>
       <c r="J10" s="36">
-        <v>4.1610430000000003</v>
+        <v>0.278084</v>
       </c>
       <c r="K10" s="36">
         <v>0</v>
       </c>
       <c r="L10" s="37">
-        <v>-3.1045929999999999</v>
+        <v>4.2055959999999999</v>
       </c>
       <c r="M10" s="75"/>
       <c r="N10" s="75"/>
@@ -4433,34 +4364,34 @@
         <v>38</v>
       </c>
       <c r="P10" s="3">
-        <v>-1.311377</v>
+        <v>0.55799500000000002</v>
       </c>
       <c r="Q10" s="3">
-        <v>9.6531000000000006E-2</v>
+        <v>2.1579929999999998</v>
       </c>
       <c r="R10" s="3">
-        <v>-0.80310499999999996</v>
+        <v>0.465785</v>
       </c>
       <c r="S10" s="3">
-        <v>-1.1823030000000001</v>
+        <v>0.65068000000000004</v>
       </c>
       <c r="T10" s="3">
-        <v>-0.88326300000000002</v>
+        <v>0.14308399999999999</v>
       </c>
       <c r="U10" s="3">
-        <v>-1.834711</v>
+        <v>1.897643</v>
       </c>
       <c r="V10" s="3">
-        <v>3.7926920000000002</v>
+        <v>3.232488</v>
       </c>
       <c r="W10" s="3">
-        <v>4.1610430000000003</v>
+        <v>0.278084</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>-3.1045929999999999</v>
+        <v>4.2055959999999999</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -4554,34 +4485,34 @@
         <v>9</v>
       </c>
       <c r="C13" s="36">
-        <v>759.01116500000001</v>
+        <v>420.51159899999999</v>
       </c>
       <c r="D13" s="36">
-        <v>689.44220800000005</v>
+        <v>337.86228</v>
       </c>
       <c r="E13" s="36">
-        <v>111.169473</v>
+        <v>54.644247</v>
       </c>
       <c r="F13" s="36">
-        <v>319.39155699999998</v>
+        <v>175.29008300000001</v>
       </c>
       <c r="G13" s="36">
-        <v>41.015385999999999</v>
+        <v>22.237102</v>
       </c>
       <c r="H13" s="36">
-        <v>28.84966</v>
+        <v>15.347474</v>
       </c>
       <c r="I13" s="36">
-        <v>23.503357000000001</v>
+        <v>13.16878</v>
       </c>
       <c r="J13" s="36">
-        <v>71.326638000000003</v>
+        <v>39.924453999999997</v>
       </c>
       <c r="K13" s="36">
-        <v>6599.8105100000002</v>
+        <v>3773.2374100000002</v>
       </c>
       <c r="L13" s="37">
-        <v>232.35756000000001</v>
+        <v>134.06356</v>
       </c>
       <c r="M13" s="82"/>
       <c r="N13" s="83"/>
@@ -4589,34 +4520,34 @@
         <v>9</v>
       </c>
       <c r="P13" s="3">
-        <v>759.01116500000001</v>
+        <v>420.51159899999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>689.44220800000005</v>
+        <v>337.86228</v>
       </c>
       <c r="R13" s="3">
-        <v>111.169473</v>
+        <v>54.644247</v>
       </c>
       <c r="S13" s="3">
-        <v>319.39155699999998</v>
+        <v>175.29008300000001</v>
       </c>
       <c r="T13" s="3">
-        <v>41.015385999999999</v>
+        <v>22.237102</v>
       </c>
       <c r="U13" s="3">
-        <v>28.84966</v>
+        <v>15.347474</v>
       </c>
       <c r="V13" s="3">
-        <v>23.503357000000001</v>
+        <v>13.16878</v>
       </c>
       <c r="W13" s="3">
-        <v>71.326638000000003</v>
+        <v>39.924453999999997</v>
       </c>
       <c r="X13" s="3">
-        <v>6599.8105100000002</v>
+        <v>3773.2374100000002</v>
       </c>
       <c r="Y13" s="3">
-        <v>232.35756000000001</v>
+        <v>134.06356</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1">
@@ -4625,34 +4556,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="38">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="D14" s="38">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="E14" s="38">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="F14" s="38">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="G14" s="38">
-        <v>20.150811999999998</v>
+        <v>22.516762</v>
       </c>
       <c r="H14" s="38">
-        <v>13.096591</v>
+        <v>15.764552999999999</v>
       </c>
       <c r="I14" s="38">
-        <v>14.062167000000001</v>
+        <v>17.515367999999999</v>
       </c>
       <c r="J14" s="38">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="K14" s="38">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="L14" s="39">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
       <c r="M14" s="82"/>
       <c r="N14" s="83"/>
@@ -4660,34 +4591,34 @@
         <v>10</v>
       </c>
       <c r="P14" s="5">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="Q14" s="5">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="R14" s="5">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="S14" s="5">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="T14" s="5">
-        <v>20.150811999999998</v>
+        <v>22.516762</v>
       </c>
       <c r="U14" s="5">
-        <v>13.096591</v>
+        <v>15.764552999999999</v>
       </c>
       <c r="V14" s="5">
-        <v>14.062167000000001</v>
+        <v>17.515367999999999</v>
       </c>
       <c r="W14" s="5">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="X14" s="5">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="Y14" s="5">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="27.75" thickBot="1">
@@ -4696,34 +4627,34 @@
         <v>11</v>
       </c>
       <c r="C15" s="36">
-        <v>78.202972000000003</v>
+        <v>65.777608999999998</v>
       </c>
       <c r="D15" s="36">
-        <v>92.539734999999993</v>
+        <v>72.747511000000003</v>
       </c>
       <c r="E15" s="36">
-        <v>95.978735999999998</v>
+        <v>67.634187999999995</v>
       </c>
       <c r="F15" s="36">
-        <v>79.316468999999998</v>
+        <v>65.839664999999997</v>
       </c>
       <c r="G15" s="36">
-        <v>75.100057000000007</v>
+        <v>59.762934000000001</v>
       </c>
       <c r="H15" s="36">
-        <v>94.033882000000006</v>
+        <v>83.248551000000006</v>
       </c>
       <c r="I15" s="36">
-        <v>95.958233000000007</v>
+        <v>71.696154000000007</v>
       </c>
       <c r="J15" s="36">
-        <v>97.039582999999993</v>
+        <v>74.091911999999994</v>
       </c>
       <c r="K15" s="36">
-        <v>59.805644000000001</v>
+        <v>38.755181</v>
       </c>
       <c r="L15" s="40">
-        <v>90.161869999999993</v>
+        <v>83.157289000000006</v>
       </c>
       <c r="M15" s="82"/>
       <c r="N15" s="83"/>
@@ -4731,34 +4662,34 @@
         <v>11</v>
       </c>
       <c r="P15" s="3">
-        <v>78.202972000000003</v>
+        <v>65.777608999999998</v>
       </c>
       <c r="Q15" s="3">
-        <v>92.539734999999993</v>
+        <v>72.747511000000003</v>
       </c>
       <c r="R15" s="3">
-        <v>95.978735999999998</v>
+        <v>67.634187999999995</v>
       </c>
       <c r="S15" s="3">
-        <v>79.316468999999998</v>
+        <v>65.839664999999997</v>
       </c>
       <c r="T15" s="3">
-        <v>75.100057000000007</v>
+        <v>59.762934000000001</v>
       </c>
       <c r="U15" s="3">
-        <v>94.033882000000006</v>
+        <v>83.248551000000006</v>
       </c>
       <c r="V15" s="3">
-        <v>95.958233000000007</v>
+        <v>71.696154000000007</v>
       </c>
       <c r="W15" s="3">
-        <v>97.039582999999993</v>
+        <v>74.091911999999994</v>
       </c>
       <c r="X15" s="3">
-        <v>59.805644000000001</v>
+        <v>38.755181</v>
       </c>
       <c r="Y15" s="3">
-        <v>90.161869999999993</v>
+        <v>83.157289000000006</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="24.75" thickBot="1">
@@ -4767,34 +4698,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="38">
-        <v>4.0933310000000001</v>
+        <v>3.4429569999999998</v>
       </c>
       <c r="D16" s="38">
-        <v>4.8437510000000001</v>
+        <v>3.807779</v>
       </c>
       <c r="E16" s="38">
-        <v>5.0237569999999998</v>
+        <v>3.5401349999999998</v>
       </c>
       <c r="F16" s="38">
-        <v>4.1516140000000004</v>
+        <v>3.4462060000000001</v>
       </c>
       <c r="G16" s="38">
-        <v>3.930917</v>
+        <v>3.1281349999999999</v>
       </c>
       <c r="H16" s="38">
-        <v>4.9219580000000001</v>
+        <v>4.3574279999999996</v>
       </c>
       <c r="I16" s="38">
-        <v>5.0226829999999998</v>
+        <v>3.752748</v>
       </c>
       <c r="J16" s="38">
-        <v>5.0792840000000004</v>
+        <v>3.8781479999999999</v>
       </c>
       <c r="K16" s="38">
-        <v>3.1303700000000001</v>
+        <v>2.0285389999999999</v>
       </c>
       <c r="L16" s="39">
-        <v>4.7192879999999997</v>
+        <v>4.3526509999999998</v>
       </c>
       <c r="M16" s="82"/>
       <c r="N16" s="83"/>
@@ -4802,34 +4733,34 @@
         <v>12</v>
       </c>
       <c r="P16" s="5">
-        <v>4.0933310000000001</v>
+        <v>3.4429569999999998</v>
       </c>
       <c r="Q16" s="5">
-        <v>4.8437510000000001</v>
+        <v>3.807779</v>
       </c>
       <c r="R16" s="5">
-        <v>5.0237569999999998</v>
+        <v>3.5401349999999998</v>
       </c>
       <c r="S16" s="5">
-        <v>4.1516140000000004</v>
+        <v>3.4462060000000001</v>
       </c>
       <c r="T16" s="5">
-        <v>3.930917</v>
+        <v>3.1281349999999999</v>
       </c>
       <c r="U16" s="5">
-        <v>4.9219580000000001</v>
+        <v>4.3574279999999996</v>
       </c>
       <c r="V16" s="5">
-        <v>5.0226829999999998</v>
+        <v>3.752748</v>
       </c>
       <c r="W16" s="5">
-        <v>5.0792840000000004</v>
+        <v>3.8781479999999999</v>
       </c>
       <c r="X16" s="5">
-        <v>3.1303700000000001</v>
+        <v>2.0285389999999999</v>
       </c>
       <c r="Y16" s="5">
-        <v>4.7192879999999997</v>
+        <v>4.3526509999999998</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1">
@@ -4838,34 +4769,34 @@
         <v>13</v>
       </c>
       <c r="C17" s="31">
-        <v>-0.50645799999999996</v>
+        <v>1.047E-2</v>
       </c>
       <c r="D17" s="31">
-        <v>-0.54531600000000002</v>
+        <v>0.128856</v>
       </c>
       <c r="E17" s="31">
-        <v>-0.556863</v>
+        <v>4.8633000000000003E-2</v>
       </c>
       <c r="F17" s="31">
-        <v>-0.50955300000000003</v>
+        <v>1.9158999999999999E-2</v>
       </c>
       <c r="G17" s="31">
-        <v>-0.50870099999999996</v>
+        <v>1.2576E-2</v>
       </c>
       <c r="H17" s="31">
-        <v>-0.54603999999999997</v>
+        <v>2.7175999999999999E-2</v>
       </c>
       <c r="I17" s="31">
-        <v>-0.40169500000000002</v>
+        <v>0.33006799999999997</v>
       </c>
       <c r="J17" s="31">
-        <v>-0.38769399999999998</v>
+        <v>0.27428799999999998</v>
       </c>
       <c r="K17" s="31">
-        <v>-0.47783300000000001</v>
+        <v>1.2343E-2</v>
       </c>
       <c r="L17" s="35">
-        <v>-0.53697899999999998</v>
+        <v>1.3972999999999999E-2</v>
       </c>
       <c r="M17" s="82"/>
       <c r="N17" s="84"/>
@@ -4873,34 +4804,34 @@
         <v>13</v>
       </c>
       <c r="P17" s="3">
-        <v>-0.50645799999999996</v>
+        <v>1.047E-2</v>
       </c>
       <c r="Q17" s="3">
-        <v>-0.54531600000000002</v>
+        <v>0.128856</v>
       </c>
       <c r="R17" s="3">
-        <v>-0.556863</v>
+        <v>4.8633000000000003E-2</v>
       </c>
       <c r="S17" s="3">
-        <v>-0.50955300000000003</v>
+        <v>1.9158999999999999E-2</v>
       </c>
       <c r="T17" s="3">
-        <v>-0.50870099999999996</v>
+        <v>1.2576E-2</v>
       </c>
       <c r="U17" s="3">
-        <v>-0.54603999999999997</v>
+        <v>2.7175999999999999E-2</v>
       </c>
       <c r="V17" s="3">
-        <v>-0.40169500000000002</v>
+        <v>0.33006799999999997</v>
       </c>
       <c r="W17" s="3">
-        <v>-0.38769399999999998</v>
+        <v>0.27428799999999998</v>
       </c>
       <c r="X17" s="3">
-        <v>-0.47783300000000001</v>
+        <v>1.2343E-2</v>
       </c>
       <c r="Y17" s="3">
-        <v>-0.53697899999999998</v>
+        <v>1.3972999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1">
@@ -4909,34 +4840,34 @@
         <v>14</v>
       </c>
       <c r="C18" s="38">
-        <v>-2.2400579999999999</v>
+        <v>-2.1956E-2</v>
       </c>
       <c r="D18" s="38">
-        <v>-2.018694</v>
+        <v>0.949376</v>
       </c>
       <c r="E18" s="38">
-        <v>-1.9858739999999999</v>
+        <v>0.24510499999999999</v>
       </c>
       <c r="F18" s="38">
-        <v>-2.220602</v>
+        <v>5.3789999999999998E-2</v>
       </c>
       <c r="G18" s="38">
-        <v>-2.3911250000000002</v>
+        <v>-2.6823E-2</v>
       </c>
       <c r="H18" s="38">
-        <v>-1.9646129999999999</v>
+        <v>0.171712</v>
       </c>
       <c r="I18" s="38">
-        <v>-1.0547550000000001</v>
+        <v>2.466828</v>
       </c>
       <c r="J18" s="38">
-        <v>-0.991618</v>
+        <v>1.990653</v>
       </c>
       <c r="K18" s="38">
-        <v>-2.8971490000000002</v>
+        <v>0.178812</v>
       </c>
       <c r="L18" s="39">
-        <v>-2.0463170000000002</v>
+        <v>0.225191</v>
       </c>
       <c r="M18" s="82"/>
       <c r="N18" s="83"/>
@@ -4944,34 +4875,34 @@
         <v>14</v>
       </c>
       <c r="P18" s="5">
-        <v>-2.2400579999999999</v>
+        <v>-2.1956E-2</v>
       </c>
       <c r="Q18" s="5">
-        <v>-2.018694</v>
+        <v>0.949376</v>
       </c>
       <c r="R18" s="5">
-        <v>-1.9858739999999999</v>
+        <v>0.24510499999999999</v>
       </c>
       <c r="S18" s="5">
-        <v>-2.220602</v>
+        <v>5.3789999999999998E-2</v>
       </c>
       <c r="T18" s="5">
-        <v>-2.3911250000000002</v>
+        <v>-2.6823E-2</v>
       </c>
       <c r="U18" s="5">
-        <v>-1.9646129999999999</v>
+        <v>0.171712</v>
       </c>
       <c r="V18" s="5">
-        <v>-1.0547550000000001</v>
+        <v>2.466828</v>
       </c>
       <c r="W18" s="5">
-        <v>-0.991618</v>
+        <v>1.990653</v>
       </c>
       <c r="X18" s="5">
-        <v>-2.8971490000000002</v>
+        <v>0.178812</v>
       </c>
       <c r="Y18" s="5">
-        <v>-2.0463170000000002</v>
+        <v>0.225191</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1">
@@ -4980,69 +4911,69 @@
         <v>38</v>
       </c>
       <c r="C19" s="36">
-        <v>-5.824E-2</v>
+        <v>-0.21788399999999999</v>
       </c>
       <c r="D19" s="36">
-        <v>-0.29317199999999999</v>
+        <v>1.439052</v>
       </c>
       <c r="E19" s="36">
-        <v>-0.36739899999999998</v>
+        <v>0.24138499999999999</v>
       </c>
       <c r="F19" s="36">
-        <v>-8.4598000000000007E-2</v>
+        <v>-8.8028999999999996E-2</v>
       </c>
       <c r="G19" s="36">
-        <v>-0.22411400000000001</v>
+        <v>-0.24968799999999999</v>
       </c>
       <c r="H19" s="36">
-        <v>-0.23419000000000001</v>
+        <v>0.14766399999999999</v>
       </c>
       <c r="I19" s="36">
-        <v>1.554702</v>
+        <v>4.2605560000000002</v>
       </c>
       <c r="J19" s="36">
-        <v>1.666193</v>
+        <v>3.4048790000000002</v>
       </c>
       <c r="K19" s="36">
         <v>0</v>
       </c>
       <c r="L19" s="37">
-        <v>-0.248919</v>
+        <v>0.24921199999999999</v>
       </c>
       <c r="M19" s="82"/>
       <c r="N19" s="83"/>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P19" s="3">
-        <v>-5.824E-2</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>-0.29317199999999999</v>
-      </c>
-      <c r="R19" s="3">
-        <v>-0.36739899999999998</v>
-      </c>
-      <c r="S19" s="3">
-        <v>-8.4598000000000007E-2</v>
-      </c>
-      <c r="T19" s="3">
-        <v>-0.22411400000000001</v>
-      </c>
-      <c r="U19" s="3">
-        <v>-0.23419000000000001</v>
-      </c>
-      <c r="V19" s="3">
-        <v>1.554702</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1.666193</v>
-      </c>
-      <c r="X19" s="3">
+      <c r="P19" s="5">
+        <v>-0.21788399999999999</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1.439052</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.24138499999999999</v>
+      </c>
+      <c r="S19" s="5">
+        <v>-8.8028999999999996E-2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>-0.24968799999999999</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0.14766399999999999</v>
+      </c>
+      <c r="V19" s="5">
+        <v>4.2605560000000002</v>
+      </c>
+      <c r="W19" s="5">
+        <v>3.4048790000000002</v>
+      </c>
+      <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Y19" s="3">
-        <v>-0.248919</v>
+      <c r="Y19" s="5">
+        <v>0.24921199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -5122,25 +5053,25 @@
         <v>9</v>
       </c>
       <c r="D22" s="36">
-        <v>2022.304525</v>
+        <v>740.95374000000004</v>
       </c>
       <c r="E22" s="36">
-        <v>3586.2706330000001</v>
+        <v>637.90018599999996</v>
       </c>
       <c r="F22" s="36">
-        <v>562.72746600000005</v>
+        <v>110.28713500000001</v>
       </c>
       <c r="G22" s="36">
-        <v>924.04969500000004</v>
+        <v>311.30364400000002</v>
       </c>
       <c r="H22" s="36">
-        <v>237.501678</v>
+        <v>73.888660999999999</v>
       </c>
       <c r="I22" s="36">
-        <v>14071.16898</v>
+        <v>6496.41698</v>
       </c>
       <c r="J22" s="37">
-        <v>733.75872000000004</v>
+        <v>216.81274999999999</v>
       </c>
       <c r="K22" s="80"/>
       <c r="L22" s="80"/>
@@ -5150,25 +5081,25 @@
         <v>9</v>
       </c>
       <c r="P22" s="3">
-        <v>2022.304525</v>
+        <v>740.95374000000004</v>
       </c>
       <c r="Q22" s="3">
-        <v>3586.2706330000001</v>
+        <v>637.90018599999996</v>
       </c>
       <c r="R22" s="3">
-        <v>562.72746600000005</v>
+        <v>110.28713500000001</v>
       </c>
       <c r="S22" s="3">
-        <v>924.04969500000004</v>
+        <v>311.30364400000002</v>
       </c>
       <c r="T22" s="3">
-        <v>237.501678</v>
+        <v>73.888660999999999</v>
       </c>
       <c r="U22" s="3">
-        <v>14071.16898</v>
+        <v>6496.41698</v>
       </c>
       <c r="V22" s="3">
-        <v>733.75872000000004</v>
+        <v>216.81274999999999</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1">
@@ -5178,25 +5109,25 @@
         <v>10</v>
       </c>
       <c r="D23" s="38">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="E23" s="38">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="F23" s="38">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="G23" s="38">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="H23" s="38">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="I23" s="38">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="J23" s="39">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
       <c r="K23" s="80"/>
       <c r="L23" s="80"/>
@@ -5206,25 +5137,25 @@
         <v>10</v>
       </c>
       <c r="P23" s="5">
-        <v>374.60394200000002</v>
+        <v>424.91415799999999</v>
       </c>
       <c r="Q23" s="5">
-        <v>313.47853900000001</v>
+        <v>381.39801899999998</v>
       </c>
       <c r="R23" s="5">
-        <v>49.263316000000003</v>
+        <v>57.301769999999998</v>
       </c>
       <c r="S23" s="5">
-        <v>156.644587</v>
+        <v>178.64849000000001</v>
       </c>
       <c r="T23" s="5">
-        <v>43.673755</v>
+        <v>50.875261000000002</v>
       </c>
       <c r="U23" s="5">
-        <v>3446.2022900000002</v>
+        <v>3819.8123599999999</v>
       </c>
       <c r="V23" s="5">
-        <v>107.58642</v>
+        <v>135.93684999999999</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="27.75" thickBot="1">
@@ -5234,25 +5165,25 @@
         <v>11</v>
       </c>
       <c r="D24" s="36">
-        <v>89.205624</v>
+        <v>85.369336000000004</v>
       </c>
       <c r="E24" s="36">
-        <v>114.74887099999999</v>
+        <v>96.667501999999999</v>
       </c>
       <c r="F24" s="36">
-        <v>116.825343</v>
+        <v>99.162239999999997</v>
       </c>
       <c r="G24" s="36">
-        <v>91.742192000000003</v>
+        <v>86.135317999999998</v>
       </c>
       <c r="H24" s="36">
-        <v>123.83176</v>
+        <v>99.542632999999995</v>
       </c>
       <c r="I24" s="36">
-        <v>70.975055999999995</v>
+        <v>63.786464000000002</v>
       </c>
       <c r="J24" s="40">
-        <v>93.640589000000006</v>
+        <v>98.773786000000001</v>
       </c>
       <c r="K24" s="80"/>
       <c r="L24" s="80"/>
@@ -5262,25 +5193,25 @@
         <v>11</v>
       </c>
       <c r="P24" s="3">
-        <v>89.205624</v>
+        <v>85.369336000000004</v>
       </c>
       <c r="Q24" s="3">
-        <v>114.74887099999999</v>
+        <v>96.667501999999999</v>
       </c>
       <c r="R24" s="3">
-        <v>116.825343</v>
+        <v>99.162239999999997</v>
       </c>
       <c r="S24" s="3">
-        <v>91.742192000000003</v>
+        <v>86.135317999999998</v>
       </c>
       <c r="T24" s="3">
-        <v>123.83176</v>
+        <v>99.542632999999995</v>
       </c>
       <c r="U24" s="3">
-        <v>70.975055999999995</v>
+        <v>63.786464000000002</v>
       </c>
       <c r="V24" s="3">
-        <v>93.640589000000006</v>
+        <v>98.773786000000001</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="27.75" thickBot="1">
@@ -5290,25 +5221,25 @@
         <v>12</v>
       </c>
       <c r="D25" s="38">
-        <v>4.6692359999999997</v>
+        <v>4.4684350000000004</v>
       </c>
       <c r="E25" s="38">
-        <v>6.0062300000000004</v>
+        <v>5.0598080000000003</v>
       </c>
       <c r="F25" s="38">
-        <v>6.1149180000000003</v>
+        <v>5.1903889999999997</v>
       </c>
       <c r="G25" s="38">
-        <v>4.8020060000000004</v>
+        <v>4.5085290000000002</v>
       </c>
       <c r="H25" s="38">
-        <v>6.4816510000000003</v>
+        <v>5.2103000000000002</v>
       </c>
       <c r="I25" s="38">
-        <v>3.715004</v>
+        <v>3.3387359999999999</v>
       </c>
       <c r="J25" s="39">
-        <v>4.9013720000000003</v>
+        <v>5.1700559999999998</v>
       </c>
       <c r="K25" s="80"/>
       <c r="L25" s="80"/>
@@ -5318,25 +5249,25 @@
         <v>12</v>
       </c>
       <c r="P25" s="5">
-        <v>4.6692359999999997</v>
+        <v>4.4684350000000004</v>
       </c>
       <c r="Q25" s="5">
-        <v>6.0062300000000004</v>
+        <v>5.0598080000000003</v>
       </c>
       <c r="R25" s="5">
-        <v>6.1149180000000003</v>
+        <v>5.1903889999999997</v>
       </c>
       <c r="S25" s="5">
-        <v>4.8020060000000004</v>
+        <v>4.5085290000000002</v>
       </c>
       <c r="T25" s="5">
-        <v>6.4816510000000003</v>
+        <v>5.2103000000000002</v>
       </c>
       <c r="U25" s="5">
-        <v>3.715004</v>
+        <v>3.3387359999999999</v>
       </c>
       <c r="V25" s="5">
-        <v>4.9013720000000003</v>
+        <v>5.1700559999999998</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1">
@@ -5346,25 +5277,25 @@
         <v>13</v>
       </c>
       <c r="D26" s="31">
-        <v>-0.81476400000000004</v>
+        <v>-0.42653099999999999</v>
       </c>
       <c r="E26" s="31">
-        <v>-0.91258899999999998</v>
+        <v>-0.40210400000000002</v>
       </c>
       <c r="F26" s="31">
-        <v>-0.91245600000000004</v>
+        <v>-0.480431</v>
       </c>
       <c r="G26" s="31">
-        <v>-0.83048</v>
+        <v>-0.42612800000000001</v>
       </c>
       <c r="H26" s="31">
-        <v>-0.81611199999999995</v>
+        <v>-0.31146099999999999</v>
       </c>
       <c r="I26" s="31">
-        <v>-0.75508799999999998</v>
+        <v>-0.41201199999999999</v>
       </c>
       <c r="J26" s="35">
-        <v>-0.85337600000000002</v>
+        <v>-0.37302200000000002</v>
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="80"/>
@@ -5374,25 +5305,25 @@
         <v>13</v>
       </c>
       <c r="P26" s="3">
-        <v>-0.81476400000000004</v>
+        <v>-0.42653099999999999</v>
       </c>
       <c r="Q26" s="3">
-        <v>-0.91258899999999998</v>
+        <v>-0.40210400000000002</v>
       </c>
       <c r="R26" s="3">
-        <v>-0.91245600000000004</v>
+        <v>-0.480431</v>
       </c>
       <c r="S26" s="3">
-        <v>-0.83048</v>
+        <v>-0.42612800000000001</v>
       </c>
       <c r="T26" s="3">
-        <v>-0.81611199999999995</v>
+        <v>-0.31146099999999999</v>
       </c>
       <c r="U26" s="3">
-        <v>-0.75508799999999998</v>
+        <v>-0.41201199999999999</v>
       </c>
       <c r="V26" s="3">
-        <v>-0.85337600000000002</v>
+        <v>-0.37302200000000002</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1">
@@ -5402,25 +5333,25 @@
         <v>14</v>
       </c>
       <c r="D27" s="38">
-        <v>-1.20411</v>
+        <v>-1.690428</v>
       </c>
       <c r="E27" s="38">
-        <v>-1.290834</v>
+        <v>-1.243088</v>
       </c>
       <c r="F27" s="38">
-        <v>-1.2031240000000001</v>
+        <v>-1.644315</v>
       </c>
       <c r="G27" s="38">
-        <v>-1.2285980000000001</v>
+        <v>-1.664784</v>
       </c>
       <c r="H27" s="38">
-        <v>-0.53902700000000003</v>
+        <v>-0.71929500000000002</v>
       </c>
       <c r="I27" s="38">
-        <v>-1.368147</v>
+        <v>-2.3864169999999998</v>
       </c>
       <c r="J27" s="39">
-        <v>-1.4365559999999999</v>
+        <v>-1.0482659999999999</v>
       </c>
       <c r="K27" s="80"/>
       <c r="L27" s="80"/>
@@ -5430,25 +5361,25 @@
         <v>14</v>
       </c>
       <c r="P27" s="5">
-        <v>-1.20411</v>
+        <v>-1.690428</v>
       </c>
       <c r="Q27" s="5">
-        <v>-1.290834</v>
+        <v>-1.243088</v>
       </c>
       <c r="R27" s="5">
-        <v>-1.2031240000000001</v>
+        <v>-1.644315</v>
       </c>
       <c r="S27" s="5">
-        <v>-1.2285980000000001</v>
+        <v>-1.664784</v>
       </c>
       <c r="T27" s="5">
-        <v>-0.53902700000000003</v>
+        <v>-0.71929500000000002</v>
       </c>
       <c r="U27" s="5">
-        <v>-1.368147</v>
+        <v>-2.3864169999999998</v>
       </c>
       <c r="V27" s="5">
-        <v>-1.4365559999999999</v>
+        <v>-1.0482659999999999</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1">
@@ -5458,25 +5389,25 @@
         <v>38</v>
       </c>
       <c r="D28" s="36">
-        <v>-0.277119</v>
+        <v>0.23224400000000001</v>
       </c>
       <c r="E28" s="36">
-        <v>-0.87841499999999995</v>
+        <v>0.77073000000000003</v>
       </c>
       <c r="F28" s="36">
-        <v>-0.74175500000000005</v>
+        <v>-0.25251400000000002</v>
       </c>
       <c r="G28" s="36">
-        <v>-0.39943099999999998</v>
+        <v>0.25659799999999999</v>
       </c>
       <c r="H28" s="36">
-        <v>0.50243499999999996</v>
+        <v>1.9139060000000001</v>
       </c>
       <c r="I28" s="36">
         <v>0</v>
       </c>
       <c r="J28" s="37">
-        <v>-0.65509899999999999</v>
+        <v>1.090981</v>
       </c>
       <c r="K28" s="80"/>
       <c r="L28" s="80"/>
@@ -5486,25 +5417,25 @@
         <v>38</v>
       </c>
       <c r="P28" s="3">
-        <v>-0.277119</v>
+        <v>0.23224400000000001</v>
       </c>
       <c r="Q28" s="3">
-        <v>-0.87841499999999995</v>
+        <v>0.77073000000000003</v>
       </c>
       <c r="R28" s="3">
-        <v>-0.74175500000000005</v>
+        <v>-0.25251400000000002</v>
       </c>
       <c r="S28" s="3">
-        <v>-0.39943099999999998</v>
+        <v>0.25659799999999999</v>
       </c>
       <c r="T28" s="3">
-        <v>0.50243499999999996</v>
+        <v>1.9139060000000001</v>
       </c>
       <c r="U28" s="3">
         <v>0</v>
       </c>
       <c r="V28" s="3">
-        <v>-0.65509899999999999</v>
+        <v>1.090981</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -5561,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5613,10 +5544,10 @@
       <c r="A4" s="75"/>
       <c r="B4" s="75"/>
       <c r="C4" s="62">
-        <v>0.85940000000000005</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="D4" s="63">
-        <v>98.61</v>
+        <v>112.88</v>
       </c>
       <c r="E4" s="75"/>
       <c r="F4" s="59"/>
@@ -5695,15 +5626,15 @@
       </c>
       <c r="C7" s="31">
         <f>Sharpe!C8</f>
-        <v>-0.109171</v>
+        <v>0.134302</v>
       </c>
       <c r="D7" s="31">
         <f>Sharpe!C17</f>
-        <v>-0.50645799999999996</v>
+        <v>1.047E-2</v>
       </c>
       <c r="E7" s="32">
         <f>Sharpe!D26</f>
-        <v>-0.81476400000000004</v>
+        <v>-0.42653099999999999</v>
       </c>
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
@@ -5760,15 +5691,15 @@
       </c>
       <c r="C8" s="33">
         <f>Sharpe!F8</f>
-        <v>-0.10636900000000001</v>
+        <v>0.14047000000000001</v>
       </c>
       <c r="D8" s="33">
         <f>Sharpe!F17</f>
-        <v>-0.50955300000000003</v>
+        <v>1.9158999999999999E-2</v>
       </c>
       <c r="E8" s="34">
         <f>Sharpe!G26</f>
-        <v>-0.83048</v>
+        <v>-0.42612800000000001</v>
       </c>
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
@@ -5825,15 +5756,15 @@
       </c>
       <c r="C9" s="31">
         <f>Sharpe!K8</f>
-        <v>-9.5979999999999996E-2</v>
+        <v>0.112299</v>
       </c>
       <c r="D9" s="31">
         <f>Sharpe!K17</f>
-        <v>-0.47783300000000001</v>
+        <v>1.2343E-2</v>
       </c>
       <c r="E9" s="35">
         <f>Sharpe!I26</f>
-        <v>-0.75508799999999998</v>
+        <v>-0.41201199999999999</v>
       </c>
       <c r="F9" s="75"/>
       <c r="G9" s="75"/>
@@ -5890,15 +5821,15 @@
       </c>
       <c r="C10" s="33">
         <f>Sharpe!L8</f>
-        <v>-0.20433399999999999</v>
+        <v>0.27113999999999999</v>
       </c>
       <c r="D10" s="33">
         <f>Sharpe!L17</f>
-        <v>-0.53697899999999998</v>
+        <v>1.3972999999999999E-2</v>
       </c>
       <c r="E10" s="34">
         <f>Sharpe!J26</f>
-        <v>-0.85337600000000002</v>
+        <v>-0.37302200000000002</v>
       </c>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
@@ -6012,7 +5943,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="62">
-        <v>6.49664589154412E-2</v>
+        <v>3.9721668555338802E-4</v>
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
@@ -6042,7 +5973,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="65">
-        <v>0.23712999471228</v>
+        <v>2.0501913273642501E-3</v>
       </c>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
@@ -6066,13 +5997,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" s="53">
-        <v>4.9190718286438E-2</v>
+        <v>6.4691178109698197E-2</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
@@ -6096,13 +6027,13 @@
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E16" s="65">
-        <v>5.28776805873915E-2</v>
+        <v>2.31639288375575E-3</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
@@ -6126,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>23</v>
@@ -6158,7 +6089,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="53">
-        <v>4.72541513800515E-3</v>
+        <v>7.9060855318075797E-4</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
@@ -6166,34 +6097,34 @@
         <v>13</v>
       </c>
       <c r="I17" s="3">
-        <v>-9.5979650000000003</v>
+        <v>11.229919000000001</v>
       </c>
       <c r="J17" s="3">
-        <v>-20.433437999999999</v>
+        <v>27.113994999999999</v>
       </c>
       <c r="K17" s="3">
-        <v>-13.902741000000001</v>
+        <v>1.1190659999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>-28.716567999999999</v>
+        <v>3.7296040000000001</v>
       </c>
       <c r="M17" s="3">
-        <v>2.6667649999999998</v>
+        <v>44.293748999999998</v>
       </c>
       <c r="N17" s="3">
-        <v>-25.031611999999999</v>
+        <v>14.095072</v>
       </c>
       <c r="O17" s="3">
-        <v>-16.590736</v>
+        <v>-5.9642150000000003</v>
       </c>
       <c r="P17" s="3">
-        <v>-11.300686000000001</v>
+        <v>51.014744999999998</v>
       </c>
       <c r="Q17" s="3">
-        <v>-8.6597449999999991</v>
+        <v>11.780036000000001</v>
       </c>
       <c r="R17" s="3">
-        <v>-26.858865000000002</v>
+        <v>4.3094489999999999</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -6213,10 +6144,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="65">
-        <v>3.3124849758376003E-4</v>
+        <v>5.3521221759040302E-4</v>
       </c>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
@@ -6226,39 +6157,39 @@
       </c>
       <c r="I18">
         <f t="shared" ref="I18:Q18" si="0">I17*0.01</f>
-        <v>-9.597965E-2</v>
+        <v>0.11229919000000001</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>-0.20433437999999998</v>
+        <v>0.27113995000000002</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>-0.13902741000000002</v>
+        <v>1.119066E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>-0.28716567999999998</v>
+        <v>3.7296040000000003E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>2.6667649999999998E-2</v>
+        <v>0.44293748999999999</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>-0.25031611999999998</v>
+        <v>0.14095072</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>-0.16590736</v>
+        <v>-5.9642150000000005E-2</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>-0.11300686000000001</v>
+        <v>0.51014744999999995</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>-8.6597449999999992E-2</v>
+        <v>0.11780036000000001</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -6276,13 +6207,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19" s="53">
-        <v>2.0952776898391399E-2</v>
+        <v>5.2907887259243197E-2</v>
       </c>
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
@@ -6312,7 +6243,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="73">
-        <v>6.1213520252354402E-2</v>
+        <v>8.0108322935994E-2</v>
       </c>
       <c r="F20" s="75"/>
       <c r="G20" s="75"/>
@@ -6383,14 +6314,14 @@
         <v>7</v>
       </c>
       <c r="Q22" s="6">
-        <v>-9.5979650000000003</v>
+        <v>11.229919000000001</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" t="s">
         <v>7</v>
       </c>
       <c r="T22">
-        <v>0.61618096039687897</v>
+        <v>0.67277227909366</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -6401,17 +6332,17 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="75"/>
-      <c r="B23" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="33">
-        <v>2.6667649999999998E-2</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1.7076571856880898E-2</v>
-      </c>
-      <c r="E23" s="88">
-        <v>4.5539204147914986E-4</v>
+      <c r="B23" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="92">
+        <v>0.51014744999999995</v>
+      </c>
+      <c r="D23" s="92">
+        <v>2.3611051743154601E-2</v>
+      </c>
+      <c r="E23" s="95">
+        <v>1.2045117838588373E-2</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="75"/>
@@ -6420,28 +6351,28 @@
       </c>
       <c r="J23" s="47">
         <f>SUMIFS($Q$22:$Q$31,$P$22:$P$31,I23)*0.01</f>
-        <v>-9.597965E-2</v>
+        <v>0.11229919000000001</v>
       </c>
       <c r="K23" s="47">
         <f>SUMIFS($T$22:$T$31,$S$22:$S$31,I23)*1</f>
-        <v>0.61618096039687897</v>
+        <v>0.67277227909366</v>
       </c>
       <c r="L23" s="47">
         <f>J23*K23</f>
-        <v>-5.9140832915556302E-2</v>
+        <v>7.5551781996671952E-2</v>
       </c>
       <c r="P23" t="s">
         <v>8</v>
       </c>
       <c r="Q23" s="6">
-        <v>-20.433437999999999</v>
+        <v>27.113994999999999</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" t="s">
         <v>18</v>
       </c>
       <c r="T23">
-        <v>0.136555937036615</v>
+        <v>7.5445162160572704E-2</v>
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
@@ -6452,17 +6383,17 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="75"/>
-      <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="31">
-        <v>-8.6597449999999992E-2</v>
-      </c>
-      <c r="D24" s="31">
-        <v>9.9799698823663206E-3</v>
-      </c>
-      <c r="E24" s="35">
-        <v>-8.6423994288972327E-4</v>
+      <c r="B24" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="92">
+        <v>0.44293748999999999</v>
+      </c>
+      <c r="D24" s="92">
+        <v>2.1236542980237302E-2</v>
+      </c>
+      <c r="E24" s="93">
+        <v>9.4064610439434301E-3</v>
       </c>
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
@@ -6471,28 +6402,28 @@
       </c>
       <c r="J24" s="47">
         <f t="shared" ref="J24:J32" si="1">SUMIFS($Q$22:$Q$31,$P$22:$P$31,I24)*0.01</f>
-        <v>-0.13902741000000002</v>
+        <v>1.119066E-2</v>
       </c>
       <c r="K24" s="47">
         <f t="shared" ref="K24:K32" si="2">SUMIFS($T$22:$T$31,$S$22:$S$31,I24)*1</f>
-        <v>0.136555937036615</v>
+        <v>7.5445162160572704E-2</v>
       </c>
       <c r="L24" s="47">
         <f t="shared" ref="L24:L32" si="3">J24*K24</f>
-        <v>-1.8985018246323662E-2</v>
+        <v>8.4428115838383448E-4</v>
       </c>
       <c r="P24" t="s">
         <v>18</v>
       </c>
       <c r="Q24" s="6">
-        <v>-13.902741000000001</v>
+        <v>1.1190659999999999</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" t="s">
         <v>8</v>
       </c>
       <c r="T24">
-        <v>0.132025917220953</v>
+        <v>0.12494269299122</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
@@ -6503,17 +6434,17 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="75"/>
-      <c r="B25" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="93">
-        <v>-9.597965E-2</v>
-      </c>
-      <c r="D25" s="93">
-        <v>0.61618096039687897</v>
-      </c>
-      <c r="E25" s="94">
-        <v>-5.9140832915556302E-2</v>
+      <c r="B25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0.27113995000000002</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0.12494269299122</v>
+      </c>
+      <c r="E25" s="35">
+        <v>3.3876955530504745E-2</v>
       </c>
       <c r="F25" s="75"/>
       <c r="G25" s="75"/>
@@ -6522,42 +6453,42 @@
       </c>
       <c r="J25" s="47">
         <f t="shared" si="1"/>
-        <v>-0.28716567999999998</v>
+        <v>3.7296040000000003E-2</v>
       </c>
       <c r="K25" s="47">
         <f t="shared" si="2"/>
-        <v>2.0027598912952499E-2</v>
+        <v>1.7402963642387699E-2</v>
       </c>
       <c r="L25" s="47">
         <f t="shared" si="3"/>
-        <v>-5.7512390606052647E-3</v>
+        <v>6.4906162812503737E-4</v>
       </c>
       <c r="P25" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="6">
-        <v>-28.716567999999999</v>
+        <v>3.7296040000000001</v>
       </c>
       <c r="S25" t="s">
         <v>19</v>
       </c>
       <c r="T25">
-        <v>2.0027598912952499E-2</v>
+        <v>1.7402963642387699E-2</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="75"/>
       <c r="B26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="31">
-        <v>-0.11300686000000001</v>
+        <v>0.14095072</v>
       </c>
       <c r="D26" s="31">
-        <v>2.2312965572135E-2</v>
+        <v>2.2377719021100698E-2</v>
       </c>
       <c r="E26" s="35">
-        <v>-2.5215181765950801E-3</v>
+        <v>3.1541556079818386E-3</v>
       </c>
       <c r="F26" s="75"/>
       <c r="G26" s="75"/>
@@ -6566,42 +6497,42 @@
       </c>
       <c r="J26" s="47">
         <f t="shared" si="1"/>
-        <v>-0.20433437999999998</v>
+        <v>0.27113995000000002</v>
       </c>
       <c r="K26" s="47">
         <f t="shared" si="2"/>
-        <v>0.132025917220953</v>
+        <v>0.12494269299122</v>
       </c>
       <c r="L26" s="47">
         <f t="shared" si="3"/>
-        <v>-2.697743393927475E-2</v>
+        <v>3.3876955530504745E-2</v>
       </c>
       <c r="P26" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="6">
-        <v>2.6667649999999998</v>
+        <v>44.293748999999998</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26">
-        <v>2.2312965572135E-2</v>
+        <v>2.3611051743154601E-2</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="75"/>
-      <c r="B27" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="93">
-        <v>-0.13902741000000002</v>
-      </c>
-      <c r="D27" s="93">
-        <v>0.136555937036615</v>
-      </c>
-      <c r="E27" s="94">
-        <v>-1.8985018246323662E-2</v>
+      <c r="B27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0.11780036000000001</v>
+      </c>
+      <c r="D27" s="31">
+        <v>1.11214542362184E-2</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1.3101113127500527E-3</v>
       </c>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
@@ -6610,42 +6541,42 @@
       </c>
       <c r="J27" s="47">
         <f t="shared" si="1"/>
-        <v>-0.11300686000000001</v>
+        <v>0.51014744999999995</v>
       </c>
       <c r="K27" s="47">
         <f t="shared" si="2"/>
-        <v>2.2312965572135E-2</v>
+        <v>2.3611051743154601E-2</v>
       </c>
       <c r="L27" s="47">
         <f t="shared" si="3"/>
-        <v>-2.5215181765950801E-3</v>
+        <v>1.2045117838588373E-2</v>
       </c>
       <c r="P27" t="s">
         <v>21</v>
       </c>
       <c r="Q27" s="6">
-        <v>-25.031611999999999</v>
+        <v>14.095072</v>
       </c>
       <c r="S27" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="T27">
-        <v>2.53931211972384E-2</v>
+        <v>1.8566169316022299E-2</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="75"/>
-      <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="31">
-        <v>-0.16590736</v>
-      </c>
-      <c r="D28" s="31">
-        <v>6.3444398862237397E-3</v>
-      </c>
-      <c r="E28" s="35">
-        <v>-1.052589272202081E-3</v>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.11229919000000001</v>
+      </c>
+      <c r="D28" s="33">
+        <v>0.67277227909366</v>
+      </c>
+      <c r="E28" s="34">
+        <v>7.5551781996671952E-2</v>
       </c>
       <c r="F28" s="75"/>
       <c r="G28" s="75"/>
@@ -6654,42 +6585,42 @@
       </c>
       <c r="J28" s="47">
         <f t="shared" si="1"/>
-        <v>-0.25031611999999998</v>
+        <v>0.14095072</v>
       </c>
       <c r="K28" s="47">
         <f t="shared" si="2"/>
-        <v>2.53931211972384E-2</v>
+        <v>2.2377719021100698E-2</v>
       </c>
       <c r="L28" s="47">
         <f t="shared" si="3"/>
-        <v>-6.3563075727824702E-3</v>
+        <v>3.1541556079818386E-3</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="6">
-        <v>-16.590736</v>
+        <v>-5.9642150000000003</v>
       </c>
       <c r="S28" t="s">
         <v>20</v>
       </c>
       <c r="T28">
-        <v>1.7076571856880898E-2</v>
+        <v>2.1236542980237302E-2</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="75"/>
-      <c r="B29" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="93">
-        <v>-0.20433437999999998</v>
-      </c>
-      <c r="D29" s="93">
-        <v>0.132025917220953</v>
-      </c>
-      <c r="E29" s="94">
-        <v>-2.697743393927475E-2</v>
+      <c r="B29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="31">
+        <v>4.3094489999999999E-2</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1.25239648154249E-2</v>
+      </c>
+      <c r="E29" s="35">
+        <v>5.3971387649868021E-4</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
@@ -6698,42 +6629,42 @@
       </c>
       <c r="J29" s="47">
         <f t="shared" si="1"/>
-        <v>2.6667649999999998E-2</v>
+        <v>0.44293748999999999</v>
       </c>
       <c r="K29" s="47">
         <f t="shared" si="2"/>
-        <v>1.7076571856880898E-2</v>
+        <v>2.1236542980237302E-2</v>
       </c>
       <c r="L29" s="47">
         <f t="shared" si="3"/>
-        <v>4.5539204147914986E-4</v>
+        <v>9.4064610439434301E-3</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
       </c>
       <c r="Q29">
-        <v>-11.300686000000001</v>
+        <v>51.014744999999998</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="T29">
-        <v>1.4102518037754801E-2</v>
+        <v>2.2377719021100698E-2</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="75"/>
-      <c r="B30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="31">
-        <v>-0.25031611999999998</v>
-      </c>
-      <c r="D30" s="31">
-        <v>2.53931211972384E-2</v>
-      </c>
-      <c r="E30" s="35">
-        <v>-6.3563075727824702E-3</v>
+      <c r="B30" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="92">
+        <v>3.7296040000000003E-2</v>
+      </c>
+      <c r="D30" s="92">
+        <v>1.7402963642387699E-2</v>
+      </c>
+      <c r="E30" s="93">
+        <v>6.4906162812503737E-4</v>
       </c>
       <c r="F30" s="75"/>
       <c r="G30" s="75"/>
@@ -6742,42 +6673,42 @@
       </c>
       <c r="J30" s="47">
         <f t="shared" si="1"/>
-        <v>-8.6597449999999992E-2</v>
+        <v>0.11780036000000001</v>
       </c>
       <c r="K30" s="47">
         <f t="shared" si="2"/>
-        <v>9.9799698823663206E-3</v>
+        <v>1.11214542362184E-2</v>
       </c>
       <c r="L30" s="47">
         <f t="shared" si="3"/>
-        <v>-8.6423994288972327E-4</v>
+        <v>1.3101113127500527E-3</v>
       </c>
       <c r="P30" t="s">
         <v>24</v>
       </c>
       <c r="Q30" s="6">
-        <v>-8.6597449999999991</v>
+        <v>11.780036000000001</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
       </c>
       <c r="T30">
-        <v>9.9799698823663206E-3</v>
+        <v>1.11214542362184E-2</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" thickBot="1">
       <c r="A31" s="75"/>
-      <c r="B31" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="93">
-        <v>-0.26858865000000004</v>
-      </c>
-      <c r="D31" s="93">
-        <v>1.4102518037754801E-2</v>
-      </c>
-      <c r="E31" s="94">
-        <v>-3.7877762813612113E-3</v>
+      <c r="B31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="31">
+        <v>1.119066E-2</v>
+      </c>
+      <c r="D31" s="31">
+        <v>7.5445162160572704E-2</v>
+      </c>
+      <c r="E31" s="35">
+        <v>8.4428115838383448E-4</v>
       </c>
       <c r="F31" s="75"/>
       <c r="G31" s="75"/>
@@ -6786,42 +6717,42 @@
       </c>
       <c r="J31" s="47">
         <f t="shared" si="1"/>
-        <v>-0.16590736</v>
+        <v>0</v>
       </c>
       <c r="K31" s="47">
         <f t="shared" si="2"/>
-        <v>6.3444398862237397E-3</v>
+        <v>0</v>
       </c>
       <c r="L31" s="47">
         <f t="shared" si="3"/>
-        <v>-1.052589272202081E-3</v>
+        <v>0</v>
       </c>
       <c r="P31" t="s">
         <v>52</v>
       </c>
       <c r="Q31" s="6">
-        <v>-26.858865000000002</v>
+        <v>4.3094489999999999</v>
       </c>
       <c r="S31" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="T31">
-        <v>6.3444398862237397E-3</v>
+        <v>1.25239648154249E-2</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="75"/>
-      <c r="B32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="31">
-        <v>-0.28716567999999998</v>
-      </c>
-      <c r="D32" s="31">
-        <v>2.0027598912952499E-2</v>
-      </c>
-      <c r="E32" s="35">
-        <v>-5.7512390606052647E-3</v>
+      <c r="B32" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="92">
+        <v>0</v>
+      </c>
+      <c r="D32" s="92">
+        <v>0</v>
+      </c>
+      <c r="E32" s="93">
+        <v>0</v>
       </c>
       <c r="F32" s="75"/>
       <c r="G32" s="75"/>
@@ -6830,15 +6761,15 @@
       </c>
       <c r="J32" s="47">
         <f t="shared" si="1"/>
-        <v>-0.26858865000000004</v>
+        <v>4.3094489999999999E-2</v>
       </c>
       <c r="K32" s="47">
         <f t="shared" si="2"/>
-        <v>1.4102518037754801E-2</v>
+        <v>1.25239648154249E-2</v>
       </c>
       <c r="L32" s="47">
         <f t="shared" si="3"/>
-        <v>-3.7877762813612113E-3</v>
+        <v>5.3971387649868021E-4</v>
       </c>
       <c r="Q32" s="6"/>
     </row>
@@ -7401,7 +7332,7 @@
   <dimension ref="A2:Z73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7435,10 +7366,10 @@
     </row>
     <row r="4" spans="2:26" ht="15.75" thickBot="1">
       <c r="C4" s="62">
-        <v>0.85940000000000005</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="D4" s="63">
-        <v>98.61</v>
+        <v>112.88</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="61"/>
@@ -7502,16 +7433,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="31">
-        <f>Sharpe!C8</f>
-        <v>-0.109171</v>
+        <v>0.134302</v>
       </c>
       <c r="D7" s="31">
-        <f>Sharpe!C17</f>
-        <v>-0.50645799999999996</v>
+        <v>1.047E-2</v>
       </c>
       <c r="E7" s="32">
-        <f>Sharpe!D26</f>
-        <v>-0.81476400000000004</v>
+        <v>-0.42653099999999999</v>
       </c>
       <c r="I7" s="52">
         <v>10</v>
@@ -7564,16 +7492,13 @@
         <v>32</v>
       </c>
       <c r="C8" s="33">
-        <f>Sharpe!F8</f>
-        <v>-0.10636900000000001</v>
+        <v>0.14047000000000001</v>
       </c>
       <c r="D8" s="33">
-        <f>Sharpe!F17</f>
-        <v>-0.50955300000000003</v>
+        <v>1.9158999999999999E-2</v>
       </c>
       <c r="E8" s="34">
-        <f>Sharpe!G26</f>
-        <v>-0.83048</v>
+        <v>-0.42612800000000001</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -7626,16 +7551,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="31">
-        <f>Sharpe!K8</f>
-        <v>-9.5979999999999996E-2</v>
+        <v>0.112299</v>
       </c>
       <c r="D9" s="31">
-        <f>Sharpe!K17</f>
-        <v>-0.47783300000000001</v>
+        <v>1.2343E-2</v>
       </c>
       <c r="E9" s="35">
-        <f>Sharpe!I26</f>
-        <v>-0.75508799999999998</v>
+        <v>-0.41201199999999999</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
@@ -7688,16 +7610,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="33">
-        <f>Sharpe!L8</f>
-        <v>-0.20433399999999999</v>
+        <v>0.27113999999999999</v>
       </c>
       <c r="D10" s="33">
-        <f>Sharpe!L17</f>
-        <v>-0.53697899999999998</v>
+        <v>1.3972999999999999E-2</v>
       </c>
       <c r="E10" s="34">
-        <f>Sharpe!J26</f>
-        <v>-0.85337600000000002</v>
+        <v>-0.37302200000000002</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -7796,13 +7715,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="62">
-        <v>6.49664589154412E-2</v>
+        <v>3.9721668555338802E-4</v>
       </c>
       <c r="K13" s="47"/>
       <c r="L13" s="47"/>
@@ -7823,13 +7742,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="65">
-        <v>0.23712999471228</v>
+        <v>2.0501913273642501E-3</v>
       </c>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
@@ -7850,13 +7769,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="53">
-        <v>4.9190718286438E-2</v>
+        <v>6.4691178109698197E-2</v>
       </c>
       <c r="K15" s="47"/>
       <c r="L15" s="47"/>
@@ -7877,13 +7796,13 @@
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E16" s="65">
-        <v>5.28776805873915E-2</v>
+        <v>2.31639288375575E-3</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>7</v>
@@ -7936,7 +7855,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="53">
-        <v>4.72541513800515E-3</v>
+        <v>7.9060855318075797E-4</v>
       </c>
       <c r="H17" s="5">
         <v>-14.880680999999999</v>
@@ -7986,10 +7905,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E18" s="65">
-        <v>3.3124849758376003E-4</v>
+        <v>5.3521221759040302E-4</v>
       </c>
       <c r="H18">
         <f>H17*0.01</f>
@@ -8046,13 +7965,13 @@
         <v>41</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E19" s="53">
-        <v>2.0952776898391399E-2</v>
+        <v>5.2907887259243197E-2</v>
       </c>
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
@@ -8079,7 +7998,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="73">
-        <v>6.1213520252354402E-2</v>
+        <v>8.0108322935994E-2</v>
       </c>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
@@ -8141,16 +8060,16 @@
     </row>
     <row r="23" spans="2:26" ht="15.75" thickBot="1">
       <c r="B23" s="48" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C23" s="33">
-        <v>2.6667649999999998E-2</v>
+        <v>0.51014744999999995</v>
       </c>
       <c r="D23" s="33">
-        <v>1.7076571856880898E-2</v>
+        <v>2.3611051743154601E-2</v>
       </c>
       <c r="E23" s="88">
-        <v>4.5539204147914986E-4</v>
+        <v>1.2045117838588373E-2</v>
       </c>
       <c r="J23" s="47" t="s">
         <v>33</v>
@@ -8179,16 +8098,16 @@
     </row>
     <row r="24" spans="2:26" ht="15.75" thickBot="1">
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C24" s="31">
-        <v>-8.6597449999999992E-2</v>
+        <v>0.44293748999999999</v>
       </c>
       <c r="D24" s="31">
-        <v>9.9799698823663206E-3</v>
+        <v>2.1236542980237302E-2</v>
       </c>
       <c r="E24" s="35">
-        <v>-8.6423994288972327E-4</v>
+        <v>9.4064610439434301E-3</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -8221,17 +8140,17 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B25" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="93">
-        <v>-9.597965E-2</v>
-      </c>
-      <c r="D25" s="93">
-        <v>0.61618096039687897</v>
-      </c>
-      <c r="E25" s="94">
-        <v>-5.9140832915556302E-2</v>
+      <c r="B25" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="92">
+        <v>0.27113995000000002</v>
+      </c>
+      <c r="D25" s="92">
+        <v>0.12494269299122</v>
+      </c>
+      <c r="E25" s="93">
+        <v>3.3876955530504745E-2</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
@@ -8265,16 +8184,16 @@
     </row>
     <row r="26" spans="2:26" ht="15.75" thickBot="1">
       <c r="B26" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="31">
-        <v>-0.11300686000000001</v>
+        <v>0.14095072</v>
       </c>
       <c r="D26" s="31">
-        <v>2.2312965572135E-2</v>
+        <v>2.2377719021100698E-2</v>
       </c>
       <c r="E26" s="35">
-        <v>-2.5215181765950801E-3</v>
+        <v>3.1541556079818386E-3</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -8298,17 +8217,17 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B27" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="93">
-        <v>-0.13902741000000002</v>
-      </c>
-      <c r="D27" s="93">
-        <v>0.136555937036615</v>
-      </c>
-      <c r="E27" s="94">
-        <v>-1.8985018246323662E-2</v>
+      <c r="B27" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="92">
+        <v>0.11780036000000001</v>
+      </c>
+      <c r="D27" s="92">
+        <v>1.11214542362184E-2</v>
+      </c>
+      <c r="E27" s="93">
+        <v>1.3101113127500527E-3</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -8333,16 +8252,16 @@
     </row>
     <row r="28" spans="2:26" ht="15.75" thickBot="1">
       <c r="B28" s="11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C28" s="31">
-        <v>-0.16590736</v>
+        <v>0.11229919000000001</v>
       </c>
       <c r="D28" s="31">
-        <v>6.3444398862237397E-3</v>
+        <v>0.67277227909366</v>
       </c>
       <c r="E28" s="35">
-        <v>-1.052589272202081E-3</v>
+        <v>7.5551781996671952E-2</v>
       </c>
       <c r="I28" t="s">
         <v>20</v>
@@ -8366,17 +8285,17 @@
       </c>
     </row>
     <row r="29" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B29" s="92" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="93">
-        <v>-0.20433437999999998</v>
-      </c>
-      <c r="D29" s="93">
-        <v>0.132025917220953</v>
-      </c>
-      <c r="E29" s="94">
-        <v>-2.697743393927475E-2</v>
+      <c r="B29" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="92">
+        <v>4.3094489999999999E-2</v>
+      </c>
+      <c r="D29" s="92">
+        <v>1.25239648154249E-2</v>
+      </c>
+      <c r="E29" s="93">
+        <v>5.3971387649868021E-4</v>
       </c>
       <c r="I29" t="s">
         <v>21</v>
@@ -8401,16 +8320,16 @@
     </row>
     <row r="30" spans="2:26" ht="15.75" thickBot="1">
       <c r="B30" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="31">
-        <v>-0.25031611999999998</v>
+        <v>3.7296040000000003E-2</v>
       </c>
       <c r="D30" s="31">
-        <v>2.53931211972384E-2</v>
+        <v>1.7402963642387699E-2</v>
       </c>
       <c r="E30" s="35">
-        <v>-6.3563075727824702E-3</v>
+        <v>6.4906162812503737E-4</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -8434,17 +8353,17 @@
       </c>
     </row>
     <row r="31" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B31" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="93">
-        <v>-0.26858865000000004</v>
-      </c>
-      <c r="D31" s="93">
-        <v>1.4102518037754801E-2</v>
-      </c>
-      <c r="E31" s="94">
-        <v>-3.7877762813612113E-3</v>
+      <c r="B31" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="92">
+        <v>1.119066E-2</v>
+      </c>
+      <c r="D31" s="92">
+        <v>7.5445162160572704E-2</v>
+      </c>
+      <c r="E31" s="93">
+        <v>8.4428115838383448E-4</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -8469,16 +8388,16 @@
     </row>
     <row r="32" spans="2:26" ht="15.75" thickBot="1">
       <c r="B32" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C32" s="31">
-        <v>-0.28716567999999998</v>
+        <v>0</v>
       </c>
       <c r="D32" s="31">
-        <v>2.0027598912952499E-2</v>
+        <v>0</v>
       </c>
       <c r="E32" s="35">
-        <v>-5.7512390606052647E-3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
@@ -9098,8 +9017,8 @@
   </sheetPr>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9158,10 +9077,10 @@
         <v>36</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>7</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>8</v>
       </c>
       <c r="M2" s="75"/>
       <c r="N2" s="75"/>
@@ -9191,10 +9110,10 @@
         <v>36</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1">
@@ -9206,31 +9125,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="17">
-        <v>0.93553399999999998</v>
+        <v>0.86371100000000001</v>
       </c>
       <c r="E3" s="17">
-        <v>0.92899699999999996</v>
+        <v>0.84345899999999996</v>
       </c>
       <c r="F3" s="17">
-        <v>0.99926499999999996</v>
+        <v>0.99562099999999998</v>
       </c>
       <c r="G3" s="17">
-        <v>0.99001799999999995</v>
+        <v>0.99124199999999996</v>
       </c>
       <c r="H3" s="17">
-        <v>0.98365100000000005</v>
+        <v>0.95949600000000002</v>
       </c>
       <c r="I3" s="17">
-        <v>0.85563900000000004</v>
+        <v>0.76573599999999997</v>
       </c>
       <c r="J3" s="17">
-        <v>0.84134500000000001</v>
+        <v>0.79583999999999999</v>
       </c>
       <c r="K3" s="17">
-        <v>0.55288499999999996</v>
+        <v>0.89490999999999998</v>
       </c>
       <c r="L3" s="17">
-        <v>0.87052399999999996</v>
+        <v>0.974275</v>
       </c>
       <c r="M3" s="75"/>
       <c r="N3" s="75"/>
@@ -9241,31 +9160,31 @@
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.93553399999999998</v>
+        <v>0.86371100000000001</v>
       </c>
       <c r="R3" s="3">
-        <v>0.92899699999999996</v>
+        <v>0.84345899999999996</v>
       </c>
       <c r="S3" s="3">
-        <v>0.99926499999999996</v>
+        <v>0.99562099999999998</v>
       </c>
       <c r="T3" s="3">
-        <v>0.99001799999999995</v>
+        <v>0.99124199999999996</v>
       </c>
       <c r="U3" s="3">
-        <v>0.98365100000000005</v>
+        <v>0.95949600000000002</v>
       </c>
       <c r="V3" s="3">
-        <v>0.85563900000000004</v>
+        <v>0.76573599999999997</v>
       </c>
       <c r="W3" s="3">
-        <v>0.84134500000000001</v>
+        <v>0.79583999999999999</v>
       </c>
       <c r="X3" s="3">
-        <v>0.55288499999999996</v>
+        <v>0.89490999999999998</v>
       </c>
       <c r="Y3" s="3">
-        <v>0.87052399999999996</v>
+        <v>0.974275</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1">
@@ -9274,34 +9193,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="18">
-        <v>0.93553399999999998</v>
+        <v>0.86371100000000001</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
       </c>
       <c r="E4" s="18">
-        <v>0.92756000000000005</v>
+        <v>0.71045400000000003</v>
       </c>
       <c r="F4" s="18">
-        <v>0.94785299999999995</v>
+        <v>0.87301600000000001</v>
       </c>
       <c r="G4" s="18">
-        <v>0.92157199999999995</v>
+        <v>0.85987999999999998</v>
       </c>
       <c r="H4" s="18">
-        <v>0.95199500000000004</v>
+        <v>0.90257299999999996</v>
       </c>
       <c r="I4" s="18">
-        <v>0.97168399999999999</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="J4" s="18">
-        <v>0.96907699999999997</v>
+        <v>0.87246900000000005</v>
       </c>
       <c r="K4" s="18">
-        <v>0.44069700000000001</v>
+        <v>0.77942</v>
       </c>
       <c r="L4" s="18">
-        <v>0.84253900000000004</v>
+        <v>0.854406</v>
       </c>
       <c r="M4" s="75"/>
       <c r="N4" s="75"/>
@@ -9309,34 +9228,34 @@
         <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>0.93553399999999998</v>
+        <v>0.86371100000000001</v>
       </c>
       <c r="Q4" s="5">
         <v>1</v>
       </c>
       <c r="R4" s="5">
-        <v>0.92756000000000005</v>
+        <v>0.71045400000000003</v>
       </c>
       <c r="S4" s="5">
-        <v>0.94785299999999995</v>
+        <v>0.87301600000000001</v>
       </c>
       <c r="T4" s="5">
-        <v>0.92157199999999995</v>
+        <v>0.85987999999999998</v>
       </c>
       <c r="U4" s="5">
-        <v>0.95199500000000004</v>
+        <v>0.90257299999999996</v>
       </c>
       <c r="V4" s="5">
-        <v>0.97168399999999999</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="W4" s="5">
-        <v>0.96907699999999997</v>
+        <v>0.87246900000000005</v>
       </c>
       <c r="X4" s="5">
-        <v>0.44069700000000001</v>
+        <v>0.77942</v>
       </c>
       <c r="Y4" s="5">
-        <v>0.84253900000000004</v>
+        <v>0.854406</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickBot="1">
@@ -9345,34 +9264,34 @@
         <v>2</v>
       </c>
       <c r="C5" s="19">
-        <v>0.92899699999999996</v>
+        <v>0.84345899999999996</v>
       </c>
       <c r="D5" s="19">
-        <v>0.92756000000000005</v>
+        <v>0.71045400000000003</v>
       </c>
       <c r="E5" s="19">
         <v>1</v>
       </c>
       <c r="F5" s="19">
-        <v>0.937921</v>
+        <v>0.85112200000000005</v>
       </c>
       <c r="G5" s="19">
-        <v>0.919041</v>
+        <v>0.82922799999999997</v>
       </c>
       <c r="H5" s="19">
-        <v>0.94617700000000005</v>
+        <v>0.87958400000000003</v>
       </c>
       <c r="I5" s="19">
-        <v>0.90444100000000005</v>
+        <v>0.63875199999999999</v>
       </c>
       <c r="J5" s="19">
-        <v>0.87970899999999996</v>
+        <v>0.65353000000000006</v>
       </c>
       <c r="K5" s="19">
-        <v>0.49567</v>
+        <v>0.86535300000000004</v>
       </c>
       <c r="L5" s="19">
-        <v>0.83828899999999995</v>
+        <v>0.83032300000000003</v>
       </c>
       <c r="M5" s="75"/>
       <c r="N5" s="75"/>
@@ -9380,34 +9299,34 @@
         <v>2</v>
       </c>
       <c r="P5" s="3">
-        <v>0.92899699999999996</v>
+        <v>0.84345899999999996</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.92756000000000005</v>
+        <v>0.71045400000000003</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
       </c>
       <c r="S5" s="3">
-        <v>0.937921</v>
+        <v>0.85112200000000005</v>
       </c>
       <c r="T5" s="3">
-        <v>0.919041</v>
+        <v>0.82922799999999997</v>
       </c>
       <c r="U5" s="3">
-        <v>0.94617700000000005</v>
+        <v>0.87958400000000003</v>
       </c>
       <c r="V5" s="3">
-        <v>0.90444100000000005</v>
+        <v>0.63875199999999999</v>
       </c>
       <c r="W5" s="3">
-        <v>0.87970899999999996</v>
+        <v>0.65353000000000006</v>
       </c>
       <c r="X5" s="3">
-        <v>0.49567</v>
+        <v>0.86535300000000004</v>
       </c>
       <c r="Y5" s="3">
-        <v>0.83828899999999995</v>
+        <v>0.83032300000000003</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickBot="1">
@@ -9416,34 +9335,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="18">
-        <v>0.99926499999999996</v>
+        <v>0.99562099999999998</v>
       </c>
       <c r="D6" s="18">
-        <v>0.94785299999999995</v>
+        <v>0.87301600000000001</v>
       </c>
       <c r="E6" s="18">
-        <v>0.937921</v>
+        <v>0.85112200000000005</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
       </c>
       <c r="G6" s="18">
-        <v>0.98891200000000001</v>
+        <v>0.987958</v>
       </c>
       <c r="H6" s="18">
-        <v>0.98673500000000003</v>
+        <v>0.96661200000000003</v>
       </c>
       <c r="I6" s="18">
-        <v>0.87377700000000003</v>
+        <v>0.79474500000000003</v>
       </c>
       <c r="J6" s="18">
-        <v>0.86005600000000004</v>
+        <v>0.82047099999999995</v>
       </c>
       <c r="K6" s="18">
-        <v>0.54536600000000002</v>
+        <v>0.901478</v>
       </c>
       <c r="L6" s="18">
-        <v>0.87327699999999997</v>
+        <v>0.97318000000000005</v>
       </c>
       <c r="M6" s="75"/>
       <c r="N6" s="75"/>
@@ -9451,34 +9370,34 @@
         <v>3</v>
       </c>
       <c r="P6" s="5">
-        <v>0.99926499999999996</v>
+        <v>0.99562099999999998</v>
       </c>
       <c r="Q6" s="5">
-        <v>0.94785299999999995</v>
+        <v>0.87301600000000001</v>
       </c>
       <c r="R6" s="5">
-        <v>0.937921</v>
+        <v>0.85112200000000005</v>
       </c>
       <c r="S6" s="5">
         <v>1</v>
       </c>
       <c r="T6" s="5">
-        <v>0.98891200000000001</v>
+        <v>0.987958</v>
       </c>
       <c r="U6" s="5">
-        <v>0.98673500000000003</v>
+        <v>0.96661200000000003</v>
       </c>
       <c r="V6" s="5">
-        <v>0.87377700000000003</v>
+        <v>0.79474500000000003</v>
       </c>
       <c r="W6" s="5">
-        <v>0.86005600000000004</v>
+        <v>0.82047099999999995</v>
       </c>
       <c r="X6" s="5">
-        <v>0.54536600000000002</v>
+        <v>0.901478</v>
       </c>
       <c r="Y6" s="5">
-        <v>0.87327699999999997</v>
+        <v>0.97318000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickBot="1">
@@ -9487,34 +9406,34 @@
         <v>4</v>
       </c>
       <c r="C7" s="19">
-        <v>0.99001799999999995</v>
+        <v>0.99124199999999996</v>
       </c>
       <c r="D7" s="19">
-        <v>0.92157199999999995</v>
+        <v>0.85987999999999998</v>
       </c>
       <c r="E7" s="19">
-        <v>0.919041</v>
+        <v>0.82922799999999997</v>
       </c>
       <c r="F7" s="19">
-        <v>0.98891200000000001</v>
+        <v>0.987958</v>
       </c>
       <c r="G7" s="19">
         <v>1</v>
       </c>
       <c r="H7" s="19">
-        <v>0.95446200000000003</v>
+        <v>0.94033900000000004</v>
       </c>
       <c r="I7" s="19">
-        <v>0.83562800000000004</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="J7" s="19">
-        <v>0.821326</v>
+        <v>0.80897600000000003</v>
       </c>
       <c r="K7" s="19">
-        <v>0.61179099999999997</v>
+        <v>0.87411099999999997</v>
       </c>
       <c r="L7" s="19">
-        <v>0.816832</v>
+        <v>0.98029599999999995</v>
       </c>
       <c r="M7" s="75"/>
       <c r="N7" s="75"/>
@@ -9522,34 +9441,34 @@
         <v>4</v>
       </c>
       <c r="P7" s="3">
-        <v>0.99001799999999995</v>
+        <v>0.99124199999999996</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.92157199999999995</v>
+        <v>0.85987999999999998</v>
       </c>
       <c r="R7" s="3">
-        <v>0.919041</v>
+        <v>0.82922799999999997</v>
       </c>
       <c r="S7" s="3">
-        <v>0.98891200000000001</v>
+        <v>0.987958</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
       </c>
       <c r="U7" s="3">
-        <v>0.95446200000000003</v>
+        <v>0.94033900000000004</v>
       </c>
       <c r="V7" s="3">
-        <v>0.83562800000000004</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="W7" s="3">
-        <v>0.821326</v>
+        <v>0.80897600000000003</v>
       </c>
       <c r="X7" s="3">
-        <v>0.61179099999999997</v>
+        <v>0.87411099999999997</v>
       </c>
       <c r="Y7" s="3">
-        <v>0.816832</v>
+        <v>0.98029599999999995</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" thickBot="1">
@@ -9558,34 +9477,34 @@
         <v>5</v>
       </c>
       <c r="C8" s="18">
-        <v>0.98365100000000005</v>
+        <v>0.95949600000000002</v>
       </c>
       <c r="D8" s="18">
-        <v>0.95199500000000004</v>
+        <v>0.90257299999999996</v>
       </c>
       <c r="E8" s="18">
-        <v>0.94617700000000005</v>
+        <v>0.87958400000000003</v>
       </c>
       <c r="F8" s="18">
-        <v>0.98673500000000003</v>
+        <v>0.96661200000000003</v>
       </c>
       <c r="G8" s="18">
-        <v>0.95446200000000003</v>
+        <v>0.94033900000000004</v>
       </c>
       <c r="H8" s="18">
         <v>1</v>
       </c>
       <c r="I8" s="18">
-        <v>0.88807899999999995</v>
+        <v>0.76628399999999997</v>
       </c>
       <c r="J8" s="18">
-        <v>0.87480400000000003</v>
+        <v>0.78379900000000002</v>
       </c>
       <c r="K8" s="18">
-        <v>0.45626299999999997</v>
+        <v>0.92227700000000001</v>
       </c>
       <c r="L8" s="18">
-        <v>0.90110100000000004</v>
+        <v>0.93650800000000001</v>
       </c>
       <c r="M8" s="75"/>
       <c r="N8" s="75"/>
@@ -9593,34 +9512,34 @@
         <v>5</v>
       </c>
       <c r="P8" s="5">
-        <v>0.98365100000000005</v>
+        <v>0.95949600000000002</v>
       </c>
       <c r="Q8" s="5">
-        <v>0.95199500000000004</v>
+        <v>0.90257299999999996</v>
       </c>
       <c r="R8" s="5">
-        <v>0.94617700000000005</v>
+        <v>0.87958400000000003</v>
       </c>
       <c r="S8" s="5">
-        <v>0.98673500000000003</v>
+        <v>0.96661200000000003</v>
       </c>
       <c r="T8" s="5">
-        <v>0.95446200000000003</v>
+        <v>0.94033900000000004</v>
       </c>
       <c r="U8" s="5">
         <v>1</v>
       </c>
       <c r="V8" s="5">
-        <v>0.88807899999999995</v>
+        <v>0.76628399999999997</v>
       </c>
       <c r="W8" s="5">
-        <v>0.87480400000000003</v>
+        <v>0.78379900000000002</v>
       </c>
       <c r="X8" s="5">
-        <v>0.45626299999999997</v>
+        <v>0.92227700000000001</v>
       </c>
       <c r="Y8" s="5">
-        <v>0.90110100000000004</v>
+        <v>0.93650800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickBot="1">
@@ -9629,34 +9548,34 @@
         <v>6</v>
       </c>
       <c r="C9" s="19">
-        <v>0.85563900000000004</v>
+        <v>0.76573599999999997</v>
       </c>
       <c r="D9" s="19">
-        <v>0.97168399999999999</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="E9" s="19">
-        <v>0.90444100000000005</v>
+        <v>0.63875199999999999</v>
       </c>
       <c r="F9" s="19">
-        <v>0.87377700000000003</v>
+        <v>0.79474500000000003</v>
       </c>
       <c r="G9" s="19">
-        <v>0.83562800000000004</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="H9" s="19">
-        <v>0.88807899999999995</v>
+        <v>0.76628399999999997</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="19">
-        <v>0.99455899999999997</v>
+        <v>0.98686399999999996</v>
       </c>
       <c r="K9" s="19">
-        <v>0.37576599999999999</v>
+        <v>0.66502499999999998</v>
       </c>
       <c r="L9" s="19">
-        <v>0.81920300000000001</v>
+        <v>0.78927199999999997</v>
       </c>
       <c r="M9" s="75"/>
       <c r="N9" s="75"/>
@@ -9664,34 +9583,34 @@
         <v>6</v>
       </c>
       <c r="P9" s="3">
-        <v>0.85563900000000004</v>
+        <v>0.76573599999999997</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.97168399999999999</v>
+        <v>0.87629999999999997</v>
       </c>
       <c r="R9" s="3">
-        <v>0.90444100000000005</v>
+        <v>0.63875199999999999</v>
       </c>
       <c r="S9" s="3">
-        <v>0.87377700000000003</v>
+        <v>0.79474500000000003</v>
       </c>
       <c r="T9" s="3">
-        <v>0.83562800000000004</v>
+        <v>0.77722999999999998</v>
       </c>
       <c r="U9" s="3">
-        <v>0.88807899999999995</v>
+        <v>0.76628399999999997</v>
       </c>
       <c r="V9" s="3">
         <v>1</v>
       </c>
       <c r="W9" s="3">
-        <v>0.99455899999999997</v>
+        <v>0.98686399999999996</v>
       </c>
       <c r="X9" s="3">
-        <v>0.37576599999999999</v>
+        <v>0.66502499999999998</v>
       </c>
       <c r="Y9" s="3">
-        <v>0.81920300000000001</v>
+        <v>0.78927199999999997</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1">
@@ -9700,34 +9619,34 @@
         <v>36</v>
       </c>
       <c r="C10" s="18">
-        <v>0.84134500000000001</v>
+        <v>0.79583999999999999</v>
       </c>
       <c r="D10" s="18">
-        <v>0.96907699999999997</v>
+        <v>0.87246900000000005</v>
       </c>
       <c r="E10" s="18">
-        <v>0.87970899999999996</v>
+        <v>0.65353000000000006</v>
       </c>
       <c r="F10" s="18">
-        <v>0.86005600000000004</v>
+        <v>0.82047099999999995</v>
       </c>
       <c r="G10" s="18">
-        <v>0.821326</v>
+        <v>0.80897600000000003</v>
       </c>
       <c r="H10" s="18">
-        <v>0.87480400000000003</v>
+        <v>0.78379900000000002</v>
       </c>
       <c r="I10" s="18">
-        <v>0.99455899999999997</v>
+        <v>0.98686399999999996</v>
       </c>
       <c r="J10" s="18">
         <v>1</v>
       </c>
       <c r="K10" s="18">
-        <v>0.35622500000000001</v>
+        <v>0.680898</v>
       </c>
       <c r="L10" s="18">
-        <v>0.79611500000000002</v>
+        <v>0.805145</v>
       </c>
       <c r="M10" s="75"/>
       <c r="N10" s="75"/>
@@ -9735,138 +9654,138 @@
         <v>36</v>
       </c>
       <c r="P10" s="5">
-        <v>0.84134500000000001</v>
+        <v>0.79583999999999999</v>
       </c>
       <c r="Q10" s="5">
-        <v>0.96907699999999997</v>
+        <v>0.87246900000000005</v>
       </c>
       <c r="R10" s="5">
-        <v>0.87970899999999996</v>
+        <v>0.65353000000000006</v>
       </c>
       <c r="S10" s="5">
-        <v>0.86005600000000004</v>
+        <v>0.82047099999999995</v>
       </c>
       <c r="T10" s="5">
-        <v>0.821326</v>
+        <v>0.80897600000000003</v>
       </c>
       <c r="U10" s="5">
-        <v>0.87480400000000003</v>
+        <v>0.78379900000000002</v>
       </c>
       <c r="V10" s="5">
-        <v>0.99455899999999997</v>
+        <v>0.98686399999999996</v>
       </c>
       <c r="W10" s="5">
         <v>1</v>
       </c>
       <c r="X10" s="5">
-        <v>0.35622500000000001</v>
+        <v>0.680898</v>
       </c>
       <c r="Y10" s="5">
-        <v>0.79611500000000002</v>
+        <v>0.805145</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" thickBot="1">
       <c r="A11" s="75"/>
       <c r="B11" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="19">
-        <v>0.55288499999999996</v>
+        <v>0.89490999999999998</v>
       </c>
       <c r="D11" s="19">
-        <v>0.44069700000000001</v>
+        <v>0.77942</v>
       </c>
       <c r="E11" s="19">
-        <v>0.49567</v>
+        <v>0.86535300000000004</v>
       </c>
       <c r="F11" s="19">
-        <v>0.54536600000000002</v>
+        <v>0.901478</v>
       </c>
       <c r="G11" s="19">
-        <v>0.61179099999999997</v>
+        <v>0.87411099999999997</v>
       </c>
       <c r="H11" s="19">
-        <v>0.45626299999999997</v>
+        <v>0.92227700000000001</v>
       </c>
       <c r="I11" s="19">
-        <v>0.37576599999999999</v>
+        <v>0.66502499999999998</v>
       </c>
       <c r="J11" s="19">
-        <v>0.35622500000000001</v>
+        <v>0.680898</v>
       </c>
       <c r="K11" s="19">
         <v>1</v>
       </c>
       <c r="L11" s="19">
-        <v>0.40700199999999997</v>
+        <v>0.88451000000000002</v>
       </c>
       <c r="M11" s="75"/>
       <c r="N11" s="75"/>
       <c r="O11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3">
-        <v>0.55288499999999996</v>
+        <v>0.89490999999999998</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.44069700000000001</v>
+        <v>0.77942</v>
       </c>
       <c r="R11" s="3">
-        <v>0.49567</v>
+        <v>0.86535300000000004</v>
       </c>
       <c r="S11" s="3">
-        <v>0.54536600000000002</v>
+        <v>0.901478</v>
       </c>
       <c r="T11" s="3">
-        <v>0.61179099999999997</v>
+        <v>0.87411099999999997</v>
       </c>
       <c r="U11" s="3">
-        <v>0.45626299999999997</v>
+        <v>0.92227700000000001</v>
       </c>
       <c r="V11" s="3">
-        <v>0.37576599999999999</v>
+        <v>0.66502499999999998</v>
       </c>
       <c r="W11" s="3">
-        <v>0.35622500000000001</v>
+        <v>0.680898</v>
       </c>
       <c r="X11" s="3">
         <v>1</v>
       </c>
       <c r="Y11" s="3">
-        <v>0.40700199999999997</v>
+        <v>0.88451000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" thickBot="1">
       <c r="A12" s="75"/>
       <c r="B12" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="18">
-        <v>0.87052399999999996</v>
+        <v>0.974275</v>
       </c>
       <c r="D12" s="18">
-        <v>0.84253900000000004</v>
+        <v>0.854406</v>
       </c>
       <c r="E12" s="18">
-        <v>0.83828899999999995</v>
+        <v>0.83032300000000003</v>
       </c>
       <c r="F12" s="18">
-        <v>0.87327699999999997</v>
+        <v>0.97318000000000005</v>
       </c>
       <c r="G12" s="18">
-        <v>0.816832</v>
+        <v>0.98029599999999995</v>
       </c>
       <c r="H12" s="18">
-        <v>0.90110100000000004</v>
+        <v>0.93650800000000001</v>
       </c>
       <c r="I12" s="18">
-        <v>0.81920300000000001</v>
+        <v>0.78927199999999997</v>
       </c>
       <c r="J12" s="18">
-        <v>0.79611500000000002</v>
+        <v>0.805145</v>
       </c>
       <c r="K12" s="18">
-        <v>0.40700199999999997</v>
+        <v>0.88451000000000002</v>
       </c>
       <c r="L12" s="18">
         <v>1</v>
@@ -9874,34 +9793,34 @@
       <c r="M12" s="75"/>
       <c r="N12" s="75"/>
       <c r="O12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P12" s="5">
-        <v>0.87052399999999996</v>
+        <v>0.974275</v>
       </c>
       <c r="Q12" s="5">
-        <v>0.84253900000000004</v>
+        <v>0.854406</v>
       </c>
       <c r="R12" s="5">
-        <v>0.83828899999999995</v>
+        <v>0.83032300000000003</v>
       </c>
       <c r="S12" s="5">
-        <v>0.87327699999999997</v>
+        <v>0.97318000000000005</v>
       </c>
       <c r="T12" s="5">
-        <v>0.816832</v>
+        <v>0.98029599999999995</v>
       </c>
       <c r="U12" s="5">
-        <v>0.90110100000000004</v>
+        <v>0.93650800000000001</v>
       </c>
       <c r="V12" s="5">
-        <v>0.81920300000000001</v>
+        <v>0.78927199999999997</v>
       </c>
       <c r="W12" s="5">
-        <v>0.79611500000000002</v>
+        <v>0.805145</v>
       </c>
       <c r="X12" s="5">
-        <v>0.40700199999999997</v>
+        <v>0.88451000000000002</v>
       </c>
       <c r="Y12" s="5">
         <v>1</v>
@@ -9953,10 +9872,10 @@
         <v>36</v>
       </c>
       <c r="K14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>7</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="75"/>
       <c r="N14" s="75"/>
@@ -9986,10 +9905,10 @@
         <v>36</v>
       </c>
       <c r="X14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1">
@@ -10001,31 +9920,31 @@
         <v>1</v>
       </c>
       <c r="D15" s="17">
-        <v>0.96174700000000002</v>
+        <v>0.90046800000000005</v>
       </c>
       <c r="E15" s="17">
-        <v>0.95509599999999995</v>
+        <v>0.89386299999999996</v>
       </c>
       <c r="F15" s="17">
-        <v>0.99961500000000003</v>
+        <v>0.99777899999999997</v>
       </c>
       <c r="G15" s="17">
-        <v>0.98947700000000005</v>
+        <v>0.99456500000000003</v>
       </c>
       <c r="H15" s="17">
-        <v>0.970333</v>
+        <v>0.97831699999999999</v>
       </c>
       <c r="I15" s="17">
-        <v>0.92380700000000004</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="J15" s="17">
-        <v>0.91922800000000005</v>
+        <v>0.81467000000000001</v>
       </c>
       <c r="K15" s="17">
-        <v>0.80809600000000004</v>
+        <v>0.82571600000000001</v>
       </c>
       <c r="L15" s="17">
-        <v>0.88788699999999998</v>
+        <v>0.96066600000000002</v>
       </c>
       <c r="M15" s="75"/>
       <c r="N15" s="75"/>
@@ -10036,31 +9955,31 @@
         <v>1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0.96174700000000002</v>
+        <v>0.90046800000000005</v>
       </c>
       <c r="R15" s="3">
-        <v>0.95509599999999995</v>
+        <v>0.89386299999999996</v>
       </c>
       <c r="S15" s="3">
-        <v>0.99961500000000003</v>
+        <v>0.99777899999999997</v>
       </c>
       <c r="T15" s="3">
-        <v>0.98947700000000005</v>
+        <v>0.99456500000000003</v>
       </c>
       <c r="U15" s="3">
-        <v>0.970333</v>
+        <v>0.97831699999999999</v>
       </c>
       <c r="V15" s="3">
-        <v>0.92380700000000004</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="W15" s="3">
-        <v>0.91922800000000005</v>
+        <v>0.81467000000000001</v>
       </c>
       <c r="X15" s="3">
-        <v>0.80809600000000004</v>
+        <v>0.82571600000000001</v>
       </c>
       <c r="Y15" s="3">
-        <v>0.88788699999999998</v>
+        <v>0.96066600000000002</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1">
@@ -10069,34 +9988,34 @@
         <v>1</v>
       </c>
       <c r="C16" s="18">
-        <v>0.96174700000000002</v>
+        <v>0.90046800000000005</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
       </c>
       <c r="E16" s="18">
-        <v>0.95380699999999996</v>
+        <v>0.83091800000000005</v>
       </c>
       <c r="F16" s="18">
-        <v>0.96850099999999995</v>
+        <v>0.91537100000000005</v>
       </c>
       <c r="G16" s="18">
-        <v>0.94889000000000001</v>
+        <v>0.895675</v>
       </c>
       <c r="H16" s="18">
-        <v>0.95769199999999999</v>
+        <v>0.92963200000000001</v>
       </c>
       <c r="I16" s="18">
-        <v>0.97811599999999999</v>
+        <v>0.93296299999999999</v>
       </c>
       <c r="J16" s="18">
-        <v>0.97887100000000005</v>
+        <v>0.93477500000000002</v>
       </c>
       <c r="K16" s="18">
-        <v>0.74787099999999995</v>
+        <v>0.74804199999999998</v>
       </c>
       <c r="L16" s="18">
-        <v>0.88996699999999995</v>
+        <v>0.88953800000000005</v>
       </c>
       <c r="M16" s="75"/>
       <c r="N16" s="75"/>
@@ -10104,34 +10023,34 @@
         <v>1</v>
       </c>
       <c r="P16" s="5">
-        <v>0.96174700000000002</v>
+        <v>0.90046800000000005</v>
       </c>
       <c r="Q16" s="5">
         <v>1</v>
       </c>
       <c r="R16" s="5">
-        <v>0.95380699999999996</v>
+        <v>0.83091800000000005</v>
       </c>
       <c r="S16" s="5">
-        <v>0.96850099999999995</v>
+        <v>0.91537100000000005</v>
       </c>
       <c r="T16" s="5">
-        <v>0.94889000000000001</v>
+        <v>0.895675</v>
       </c>
       <c r="U16" s="5">
-        <v>0.95769199999999999</v>
+        <v>0.92963200000000001</v>
       </c>
       <c r="V16" s="5">
-        <v>0.97811599999999999</v>
+        <v>0.93296299999999999</v>
       </c>
       <c r="W16" s="5">
-        <v>0.97887100000000005</v>
+        <v>0.93477500000000002</v>
       </c>
       <c r="X16" s="5">
-        <v>0.74787099999999995</v>
+        <v>0.74804199999999998</v>
       </c>
       <c r="Y16" s="5">
-        <v>0.88996699999999995</v>
+        <v>0.88953800000000005</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1">
@@ -10140,34 +10059,34 @@
         <v>2</v>
       </c>
       <c r="C17" s="19">
-        <v>0.95509599999999995</v>
+        <v>0.89386299999999996</v>
       </c>
       <c r="D17" s="19">
-        <v>0.95380699999999996</v>
+        <v>0.83091800000000005</v>
       </c>
       <c r="E17" s="19">
         <v>1</v>
       </c>
       <c r="F17" s="19">
-        <v>0.96038800000000002</v>
+        <v>0.90233799999999997</v>
       </c>
       <c r="G17" s="19">
-        <v>0.94888600000000001</v>
+        <v>0.889714</v>
       </c>
       <c r="H17" s="19">
-        <v>0.93951899999999999</v>
+        <v>0.91402700000000003</v>
       </c>
       <c r="I17" s="19">
-        <v>0.94317300000000004</v>
+        <v>0.79257699999999998</v>
       </c>
       <c r="J17" s="19">
-        <v>0.93479199999999996</v>
+        <v>0.77586200000000005</v>
       </c>
       <c r="K17" s="19">
-        <v>0.77867699999999995</v>
+        <v>0.78620699999999999</v>
       </c>
       <c r="L17" s="19">
-        <v>0.87368400000000002</v>
+        <v>0.85984799999999995</v>
       </c>
       <c r="M17" s="75"/>
       <c r="N17" s="75"/>
@@ -10175,34 +10094,34 @@
         <v>2</v>
       </c>
       <c r="P17" s="3">
-        <v>0.95509599999999995</v>
+        <v>0.89386299999999996</v>
       </c>
       <c r="Q17" s="3">
-        <v>0.95380699999999996</v>
+        <v>0.83091800000000005</v>
       </c>
       <c r="R17" s="3">
         <v>1</v>
       </c>
       <c r="S17" s="3">
-        <v>0.96038800000000002</v>
+        <v>0.90233799999999997</v>
       </c>
       <c r="T17" s="3">
-        <v>0.94888600000000001</v>
+        <v>0.889714</v>
       </c>
       <c r="U17" s="3">
-        <v>0.93951899999999999</v>
+        <v>0.91402700000000003</v>
       </c>
       <c r="V17" s="3">
-        <v>0.94317300000000004</v>
+        <v>0.79257699999999998</v>
       </c>
       <c r="W17" s="3">
-        <v>0.93479199999999996</v>
+        <v>0.77586200000000005</v>
       </c>
       <c r="X17" s="3">
-        <v>0.77867699999999995</v>
+        <v>0.78620699999999999</v>
       </c>
       <c r="Y17" s="3">
-        <v>0.87368400000000002</v>
+        <v>0.85984799999999995</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1">
@@ -10211,34 +10130,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="18">
-        <v>0.99961500000000003</v>
+        <v>0.99777899999999997</v>
       </c>
       <c r="D18" s="18">
-        <v>0.96850099999999995</v>
+        <v>0.91537100000000005</v>
       </c>
       <c r="E18" s="18">
-        <v>0.96038800000000002</v>
+        <v>0.90233799999999997</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="18">
-        <v>0.98896399999999995</v>
+        <v>0.99205100000000002</v>
       </c>
       <c r="H18" s="18">
-        <v>0.97245300000000001</v>
+        <v>0.98240799999999995</v>
       </c>
       <c r="I18" s="18">
-        <v>0.93251899999999999</v>
+        <v>0.84137899999999999</v>
       </c>
       <c r="J18" s="18">
-        <v>0.92823299999999997</v>
+        <v>0.83828199999999997</v>
       </c>
       <c r="K18" s="18">
-        <v>0.80529600000000001</v>
+        <v>0.82875500000000002</v>
       </c>
       <c r="L18" s="18">
-        <v>0.89123399999999997</v>
+        <v>0.96265299999999998</v>
       </c>
       <c r="M18" s="75"/>
       <c r="N18" s="75"/>
@@ -10246,34 +10165,34 @@
         <v>3</v>
       </c>
       <c r="P18" s="5">
-        <v>0.99961500000000003</v>
+        <v>0.99777899999999997</v>
       </c>
       <c r="Q18" s="5">
-        <v>0.96850099999999995</v>
+        <v>0.91537100000000005</v>
       </c>
       <c r="R18" s="5">
-        <v>0.96038800000000002</v>
+        <v>0.90233799999999997</v>
       </c>
       <c r="S18" s="5">
         <v>1</v>
       </c>
       <c r="T18" s="5">
-        <v>0.98896399999999995</v>
+        <v>0.99205100000000002</v>
       </c>
       <c r="U18" s="5">
-        <v>0.97245300000000001</v>
+        <v>0.98240799999999995</v>
       </c>
       <c r="V18" s="5">
-        <v>0.93251899999999999</v>
+        <v>0.84137899999999999</v>
       </c>
       <c r="W18" s="5">
-        <v>0.92823299999999997</v>
+        <v>0.83828199999999997</v>
       </c>
       <c r="X18" s="5">
-        <v>0.80529600000000001</v>
+        <v>0.82875500000000002</v>
       </c>
       <c r="Y18" s="5">
-        <v>0.89123399999999997</v>
+        <v>0.96265299999999998</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1">
@@ -10282,34 +10201,34 @@
         <v>4</v>
       </c>
       <c r="C19" s="19">
-        <v>0.98947700000000005</v>
+        <v>0.99456500000000003</v>
       </c>
       <c r="D19" s="19">
-        <v>0.94889000000000001</v>
+        <v>0.895675</v>
       </c>
       <c r="E19" s="19">
-        <v>0.94888600000000001</v>
+        <v>0.889714</v>
       </c>
       <c r="F19" s="19">
-        <v>0.98896399999999995</v>
+        <v>0.99205100000000002</v>
       </c>
       <c r="G19" s="19">
         <v>1</v>
       </c>
       <c r="H19" s="19">
-        <v>0.92921299999999996</v>
+        <v>0.96545899999999996</v>
       </c>
       <c r="I19" s="19">
-        <v>0.91476400000000002</v>
+        <v>0.817241</v>
       </c>
       <c r="J19" s="19">
-        <v>0.91097899999999998</v>
+        <v>0.81402699999999995</v>
       </c>
       <c r="K19" s="19">
-        <v>0.85431100000000004</v>
+        <v>0.80882500000000002</v>
       </c>
       <c r="L19" s="19">
-        <v>0.83589899999999995</v>
+        <v>0.95879599999999998</v>
       </c>
       <c r="M19" s="75"/>
       <c r="N19" s="75"/>
@@ -10317,34 +10236,34 @@
         <v>4</v>
       </c>
       <c r="P19" s="3">
-        <v>0.98947700000000005</v>
+        <v>0.99456500000000003</v>
       </c>
       <c r="Q19" s="3">
-        <v>0.94889000000000001</v>
+        <v>0.895675</v>
       </c>
       <c r="R19" s="3">
-        <v>0.94888600000000001</v>
+        <v>0.889714</v>
       </c>
       <c r="S19" s="3">
-        <v>0.98896399999999995</v>
+        <v>0.99205100000000002</v>
       </c>
       <c r="T19" s="3">
         <v>1</v>
       </c>
       <c r="U19" s="3">
-        <v>0.92921299999999996</v>
+        <v>0.96545899999999996</v>
       </c>
       <c r="V19" s="3">
-        <v>0.91476400000000002</v>
+        <v>0.817241</v>
       </c>
       <c r="W19" s="3">
-        <v>0.91097899999999998</v>
+        <v>0.81402699999999995</v>
       </c>
       <c r="X19" s="3">
-        <v>0.85431100000000004</v>
+        <v>0.80882500000000002</v>
       </c>
       <c r="Y19" s="3">
-        <v>0.83589899999999995</v>
+        <v>0.95879599999999998</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1">
@@ -10353,34 +10272,34 @@
         <v>5</v>
       </c>
       <c r="C20" s="18">
-        <v>0.970333</v>
+        <v>0.97831699999999999</v>
       </c>
       <c r="D20" s="18">
-        <v>0.95769199999999999</v>
+        <v>0.92963200000000001</v>
       </c>
       <c r="E20" s="18">
-        <v>0.93951899999999999</v>
+        <v>0.91402700000000003</v>
       </c>
       <c r="F20" s="18">
-        <v>0.97245300000000001</v>
+        <v>0.98240799999999995</v>
       </c>
       <c r="G20" s="18">
-        <v>0.92921299999999996</v>
+        <v>0.96545899999999996</v>
       </c>
       <c r="H20" s="18">
         <v>1</v>
       </c>
       <c r="I20" s="18">
-        <v>0.91361700000000001</v>
+        <v>0.83243699999999998</v>
       </c>
       <c r="J20" s="18">
-        <v>0.90925599999999995</v>
+        <v>0.82641699999999996</v>
       </c>
       <c r="K20" s="18">
-        <v>0.696218</v>
+        <v>0.83757999999999999</v>
       </c>
       <c r="L20" s="18">
-        <v>0.93517399999999995</v>
+        <v>0.94798400000000005</v>
       </c>
       <c r="M20" s="75"/>
       <c r="N20" s="75"/>
@@ -10388,34 +10307,34 @@
         <v>5</v>
       </c>
       <c r="P20" s="5">
-        <v>0.970333</v>
+        <v>0.97831699999999999</v>
       </c>
       <c r="Q20" s="5">
-        <v>0.95769199999999999</v>
+        <v>0.92963200000000001</v>
       </c>
       <c r="R20" s="5">
-        <v>0.93951899999999999</v>
+        <v>0.91402700000000003</v>
       </c>
       <c r="S20" s="5">
-        <v>0.97245300000000001</v>
+        <v>0.98240799999999995</v>
       </c>
       <c r="T20" s="5">
-        <v>0.92921299999999996</v>
+        <v>0.96545899999999996</v>
       </c>
       <c r="U20" s="5">
         <v>1</v>
       </c>
       <c r="V20" s="5">
-        <v>0.91361700000000001</v>
+        <v>0.83243699999999998</v>
       </c>
       <c r="W20" s="5">
-        <v>0.90925599999999995</v>
+        <v>0.82641699999999996</v>
       </c>
       <c r="X20" s="5">
-        <v>0.696218</v>
+        <v>0.83757999999999999</v>
       </c>
       <c r="Y20" s="5">
-        <v>0.93517399999999995</v>
+        <v>0.94798400000000005</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1">
@@ -10424,34 +10343,34 @@
         <v>6</v>
       </c>
       <c r="C21" s="19">
-        <v>0.92380700000000004</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="D21" s="19">
-        <v>0.97811599999999999</v>
+        <v>0.93296299999999999</v>
       </c>
       <c r="E21" s="19">
-        <v>0.94317300000000004</v>
+        <v>0.79257699999999998</v>
       </c>
       <c r="F21" s="19">
-        <v>0.93251899999999999</v>
+        <v>0.84137899999999999</v>
       </c>
       <c r="G21" s="19">
-        <v>0.91476400000000002</v>
+        <v>0.817241</v>
       </c>
       <c r="H21" s="19">
-        <v>0.91361700000000001</v>
+        <v>0.83243699999999998</v>
       </c>
       <c r="I21" s="19">
         <v>1</v>
       </c>
       <c r="J21" s="19">
-        <v>0.99666500000000002</v>
+        <v>0.98749299999999995</v>
       </c>
       <c r="K21" s="19">
-        <v>0.73124</v>
+        <v>0.69158399999999998</v>
       </c>
       <c r="L21" s="19">
-        <v>0.85313700000000003</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="M21" s="75"/>
       <c r="N21" s="75"/>
@@ -10459,34 +10378,34 @@
         <v>6</v>
       </c>
       <c r="P21" s="3">
-        <v>0.92380700000000004</v>
+        <v>0.81730000000000003</v>
       </c>
       <c r="Q21" s="3">
-        <v>0.97811599999999999</v>
+        <v>0.93296299999999999</v>
       </c>
       <c r="R21" s="3">
-        <v>0.94317300000000004</v>
+        <v>0.79257699999999998</v>
       </c>
       <c r="S21" s="3">
-        <v>0.93251899999999999</v>
+        <v>0.84137899999999999</v>
       </c>
       <c r="T21" s="3">
-        <v>0.91476400000000002</v>
+        <v>0.817241</v>
       </c>
       <c r="U21" s="3">
-        <v>0.91361700000000001</v>
+        <v>0.83243699999999998</v>
       </c>
       <c r="V21" s="3">
         <v>1</v>
       </c>
       <c r="W21" s="3">
-        <v>0.99666500000000002</v>
+        <v>0.98749299999999995</v>
       </c>
       <c r="X21" s="3">
-        <v>0.73124</v>
+        <v>0.69158399999999998</v>
       </c>
       <c r="Y21" s="3">
-        <v>0.85313700000000003</v>
+        <v>0.81332599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1">
@@ -10495,34 +10414,34 @@
         <v>36</v>
       </c>
       <c r="C22" s="18">
-        <v>0.91922800000000005</v>
+        <v>0.81467000000000001</v>
       </c>
       <c r="D22" s="18">
-        <v>0.97887100000000005</v>
+        <v>0.93477500000000002</v>
       </c>
       <c r="E22" s="18">
-        <v>0.93479199999999996</v>
+        <v>0.77586200000000005</v>
       </c>
       <c r="F22" s="18">
-        <v>0.92823299999999997</v>
+        <v>0.83828199999999997</v>
       </c>
       <c r="G22" s="18">
-        <v>0.91097899999999998</v>
+        <v>0.81402699999999995</v>
       </c>
       <c r="H22" s="18">
-        <v>0.90925599999999995</v>
+        <v>0.82641699999999996</v>
       </c>
       <c r="I22" s="18">
-        <v>0.99666500000000002</v>
+        <v>0.98749299999999995</v>
       </c>
       <c r="J22" s="18">
         <v>1</v>
       </c>
       <c r="K22" s="18">
-        <v>0.72458400000000001</v>
+        <v>0.68299200000000004</v>
       </c>
       <c r="L22" s="18">
-        <v>0.849221</v>
+        <v>0.80566899999999997</v>
       </c>
       <c r="M22" s="75"/>
       <c r="N22" s="75"/>
@@ -10530,138 +10449,138 @@
         <v>36</v>
       </c>
       <c r="P22" s="5">
-        <v>0.91922800000000005</v>
+        <v>0.81467000000000001</v>
       </c>
       <c r="Q22" s="5">
-        <v>0.97887100000000005</v>
+        <v>0.93477500000000002</v>
       </c>
       <c r="R22" s="5">
-        <v>0.93479199999999996</v>
+        <v>0.77586200000000005</v>
       </c>
       <c r="S22" s="5">
-        <v>0.92823299999999997</v>
+        <v>0.83828199999999997</v>
       </c>
       <c r="T22" s="5">
-        <v>0.91097899999999998</v>
+        <v>0.81402699999999995</v>
       </c>
       <c r="U22" s="5">
-        <v>0.90925599999999995</v>
+        <v>0.82641699999999996</v>
       </c>
       <c r="V22" s="5">
-        <v>0.99666500000000002</v>
+        <v>0.98749299999999995</v>
       </c>
       <c r="W22" s="5">
         <v>1</v>
       </c>
       <c r="X22" s="5">
-        <v>0.72458400000000001</v>
+        <v>0.68299200000000004</v>
       </c>
       <c r="Y22" s="5">
-        <v>0.849221</v>
+        <v>0.80566899999999997</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1">
       <c r="A23" s="75"/>
       <c r="B23" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="19">
-        <v>0.80809600000000004</v>
+        <v>0.82571600000000001</v>
       </c>
       <c r="D23" s="19">
-        <v>0.74787099999999995</v>
+        <v>0.74804199999999998</v>
       </c>
       <c r="E23" s="19">
-        <v>0.77867699999999995</v>
+        <v>0.78620699999999999</v>
       </c>
       <c r="F23" s="19">
-        <v>0.80529600000000001</v>
+        <v>0.82875500000000002</v>
       </c>
       <c r="G23" s="19">
-        <v>0.85431100000000004</v>
+        <v>0.80882500000000002</v>
       </c>
       <c r="H23" s="19">
-        <v>0.696218</v>
+        <v>0.83757999999999999</v>
       </c>
       <c r="I23" s="19">
-        <v>0.73124</v>
+        <v>0.69158399999999998</v>
       </c>
       <c r="J23" s="19">
-        <v>0.72458400000000001</v>
+        <v>0.68299200000000004</v>
       </c>
       <c r="K23" s="19">
         <v>1</v>
       </c>
       <c r="L23" s="19">
-        <v>0.63173000000000001</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="M23" s="75"/>
       <c r="N23" s="75"/>
       <c r="O23" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P23" s="3">
-        <v>0.80809600000000004</v>
+        <v>0.82571600000000001</v>
       </c>
       <c r="Q23" s="3">
-        <v>0.74787099999999995</v>
+        <v>0.74804199999999998</v>
       </c>
       <c r="R23" s="3">
-        <v>0.77867699999999995</v>
+        <v>0.78620699999999999</v>
       </c>
       <c r="S23" s="3">
-        <v>0.80529600000000001</v>
+        <v>0.82875500000000002</v>
       </c>
       <c r="T23" s="3">
-        <v>0.85431100000000004</v>
+        <v>0.80882500000000002</v>
       </c>
       <c r="U23" s="3">
-        <v>0.696218</v>
+        <v>0.83757999999999999</v>
       </c>
       <c r="V23" s="3">
-        <v>0.73124</v>
+        <v>0.69158399999999998</v>
       </c>
       <c r="W23" s="3">
-        <v>0.72458400000000001</v>
+        <v>0.68299200000000004</v>
       </c>
       <c r="X23" s="3">
         <v>1</v>
       </c>
       <c r="Y23" s="3">
-        <v>0.63173000000000001</v>
+        <v>0.81332599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1">
       <c r="A24" s="75"/>
       <c r="B24" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="18">
-        <v>0.88788699999999998</v>
+        <v>0.96066600000000002</v>
       </c>
       <c r="D24" s="18">
-        <v>0.88996699999999995</v>
+        <v>0.88953800000000005</v>
       </c>
       <c r="E24" s="18">
-        <v>0.87368400000000002</v>
+        <v>0.85984799999999995</v>
       </c>
       <c r="F24" s="18">
-        <v>0.89123399999999997</v>
+        <v>0.96265299999999998</v>
       </c>
       <c r="G24" s="18">
-        <v>0.83589899999999995</v>
+        <v>0.95879599999999998</v>
       </c>
       <c r="H24" s="18">
-        <v>0.93517399999999995</v>
+        <v>0.94798400000000005</v>
       </c>
       <c r="I24" s="18">
-        <v>0.85313700000000003</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="J24" s="18">
-        <v>0.849221</v>
+        <v>0.80566899999999997</v>
       </c>
       <c r="K24" s="18">
-        <v>0.63173000000000001</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="L24" s="18">
         <v>1</v>
@@ -10669,34 +10588,34 @@
       <c r="M24" s="75"/>
       <c r="N24" s="75"/>
       <c r="O24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P24" s="5">
-        <v>0.88788699999999998</v>
+        <v>0.96066600000000002</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.88996699999999995</v>
+        <v>0.88953800000000005</v>
       </c>
       <c r="R24" s="5">
-        <v>0.87368400000000002</v>
+        <v>0.85984799999999995</v>
       </c>
       <c r="S24" s="5">
-        <v>0.89123399999999997</v>
+        <v>0.96265299999999998</v>
       </c>
       <c r="T24" s="5">
-        <v>0.83589899999999995</v>
+        <v>0.95879599999999998</v>
       </c>
       <c r="U24" s="5">
-        <v>0.93517399999999995</v>
+        <v>0.94798400000000005</v>
       </c>
       <c r="V24" s="5">
-        <v>0.85313700000000003</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="W24" s="5">
-        <v>0.849221</v>
+        <v>0.80566899999999997</v>
       </c>
       <c r="X24" s="5">
-        <v>0.63173000000000001</v>
+        <v>0.81332599999999999</v>
       </c>
       <c r="Y24" s="5">
         <v>1</v>
@@ -10740,10 +10659,10 @@
         <v>36</v>
       </c>
       <c r="I26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="30" t="s">
         <v>7</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>8</v>
       </c>
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
@@ -10766,10 +10685,10 @@
         <v>36</v>
       </c>
       <c r="U26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1">
@@ -10782,22 +10701,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="17">
-        <v>0.94546600000000003</v>
+        <v>0.93170600000000003</v>
       </c>
       <c r="F27" s="17">
-        <v>0.93851200000000001</v>
+        <v>0.94142700000000001</v>
       </c>
       <c r="G27" s="17">
-        <v>0.99890800000000002</v>
+        <v>0.998838</v>
       </c>
       <c r="H27" s="17">
-        <v>0.88571900000000003</v>
+        <v>0.879301</v>
       </c>
       <c r="I27" s="17">
-        <v>0.79360399999999998</v>
+        <v>0.84972000000000003</v>
       </c>
       <c r="J27" s="17">
-        <v>0.80124099999999998</v>
+        <v>0.97443400000000002</v>
       </c>
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
@@ -10810,22 +10729,22 @@
         <v>1</v>
       </c>
       <c r="Q27" s="3">
-        <v>0.94546600000000003</v>
+        <v>0.93170600000000003</v>
       </c>
       <c r="R27" s="3">
-        <v>0.93851200000000001</v>
+        <v>0.94142700000000001</v>
       </c>
       <c r="S27" s="3">
-        <v>0.99890800000000002</v>
+        <v>0.998838</v>
       </c>
       <c r="T27" s="3">
-        <v>0.88571900000000003</v>
+        <v>0.879301</v>
       </c>
       <c r="U27" s="3">
-        <v>0.79360399999999998</v>
+        <v>0.84972000000000003</v>
       </c>
       <c r="V27" s="3">
-        <v>0.80124099999999998</v>
+        <v>0.97443400000000002</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1">
@@ -10835,25 +10754,25 @@
         <v>1</v>
       </c>
       <c r="D28" s="18">
-        <v>0.94546600000000003</v>
+        <v>0.93170600000000003</v>
       </c>
       <c r="E28" s="18">
         <v>1</v>
       </c>
       <c r="F28" s="18">
-        <v>0.94145800000000002</v>
+        <v>0.91857699999999998</v>
       </c>
       <c r="G28" s="18">
-        <v>0.95821999999999996</v>
+        <v>0.94221299999999997</v>
       </c>
       <c r="H28" s="18">
-        <v>0.94672699999999999</v>
+        <v>0.95256600000000002</v>
       </c>
       <c r="I28" s="18">
-        <v>0.70596700000000001</v>
+        <v>0.83363500000000001</v>
       </c>
       <c r="J28" s="18">
-        <v>0.79789200000000005</v>
+        <v>0.92014899999999999</v>
       </c>
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
@@ -10863,25 +10782,25 @@
         <v>1</v>
       </c>
       <c r="P28" s="5">
-        <v>0.94546600000000003</v>
+        <v>0.93170600000000003</v>
       </c>
       <c r="Q28" s="5">
         <v>1</v>
       </c>
       <c r="R28" s="5">
-        <v>0.94145800000000002</v>
+        <v>0.91857699999999998</v>
       </c>
       <c r="S28" s="5">
-        <v>0.95821999999999996</v>
+        <v>0.94221299999999997</v>
       </c>
       <c r="T28" s="5">
-        <v>0.94672699999999999</v>
+        <v>0.95256600000000002</v>
       </c>
       <c r="U28" s="5">
-        <v>0.70596700000000001</v>
+        <v>0.83363500000000001</v>
       </c>
       <c r="V28" s="5">
-        <v>0.79789200000000005</v>
+        <v>0.92014899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1">
@@ -10891,25 +10810,25 @@
         <v>2</v>
       </c>
       <c r="D29" s="19">
-        <v>0.93851200000000001</v>
+        <v>0.94142700000000001</v>
       </c>
       <c r="E29" s="19">
-        <v>0.94145800000000002</v>
+        <v>0.91857699999999998</v>
       </c>
       <c r="F29" s="19">
         <v>1</v>
       </c>
       <c r="G29" s="19">
-        <v>0.94878700000000005</v>
+        <v>0.94837199999999999</v>
       </c>
       <c r="H29" s="19">
-        <v>0.89977600000000002</v>
+        <v>0.88481100000000001</v>
       </c>
       <c r="I29" s="19">
-        <v>0.72761500000000001</v>
+        <v>0.84924100000000002</v>
       </c>
       <c r="J29" s="19">
-        <v>0.79125699999999999</v>
+        <v>0.92488099999999995</v>
       </c>
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
@@ -10919,25 +10838,25 @@
         <v>2</v>
       </c>
       <c r="P29" s="3">
-        <v>0.93851200000000001</v>
+        <v>0.94142700000000001</v>
       </c>
       <c r="Q29" s="3">
-        <v>0.94145800000000002</v>
+        <v>0.91857699999999998</v>
       </c>
       <c r="R29" s="3">
         <v>1</v>
       </c>
       <c r="S29" s="3">
-        <v>0.94878700000000005</v>
+        <v>0.94837199999999999</v>
       </c>
       <c r="T29" s="3">
-        <v>0.89977600000000002</v>
+        <v>0.88481100000000001</v>
       </c>
       <c r="U29" s="3">
-        <v>0.72761500000000001</v>
+        <v>0.84924100000000002</v>
       </c>
       <c r="V29" s="3">
-        <v>0.79125699999999999</v>
+        <v>0.92488099999999995</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickBot="1">
@@ -10947,25 +10866,25 @@
         <v>3</v>
       </c>
       <c r="D30" s="18">
-        <v>0.99890800000000002</v>
+        <v>0.998838</v>
       </c>
       <c r="E30" s="18">
-        <v>0.95821999999999996</v>
+        <v>0.94221299999999997</v>
       </c>
       <c r="F30" s="18">
-        <v>0.94878700000000005</v>
+        <v>0.94837199999999999</v>
       </c>
       <c r="G30" s="18">
         <v>1</v>
       </c>
       <c r="H30" s="18">
-        <v>0.89974799999999999</v>
+        <v>0.89249000000000001</v>
       </c>
       <c r="I30" s="18">
-        <v>0.78804600000000002</v>
+        <v>0.85362400000000005</v>
       </c>
       <c r="J30" s="18">
-        <v>0.80563799999999997</v>
+        <v>0.97505699999999995</v>
       </c>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
@@ -10975,25 +10894,25 @@
         <v>3</v>
       </c>
       <c r="P30" s="5">
-        <v>0.99890800000000002</v>
+        <v>0.998838</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.95821999999999996</v>
+        <v>0.94221299999999997</v>
       </c>
       <c r="R30" s="5">
-        <v>0.94878700000000005</v>
+        <v>0.94837199999999999</v>
       </c>
       <c r="S30" s="5">
         <v>1</v>
       </c>
       <c r="T30" s="5">
-        <v>0.89974799999999999</v>
+        <v>0.89249000000000001</v>
       </c>
       <c r="U30" s="5">
-        <v>0.78804600000000002</v>
+        <v>0.85362400000000005</v>
       </c>
       <c r="V30" s="5">
-        <v>0.80563799999999997</v>
+        <v>0.97505699999999995</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1">
@@ -11003,25 +10922,25 @@
         <v>36</v>
       </c>
       <c r="D31" s="19">
-        <v>0.88571900000000003</v>
+        <v>0.879301</v>
       </c>
       <c r="E31" s="19">
-        <v>0.94672699999999999</v>
+        <v>0.95256600000000002</v>
       </c>
       <c r="F31" s="19">
-        <v>0.89977600000000002</v>
+        <v>0.88481100000000001</v>
       </c>
       <c r="G31" s="19">
-        <v>0.89974799999999999</v>
+        <v>0.89249000000000001</v>
       </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
       <c r="I31" s="19">
-        <v>0.67294900000000002</v>
+        <v>0.77132100000000003</v>
       </c>
       <c r="J31" s="19">
-        <v>0.75834500000000005</v>
+        <v>0.87681500000000001</v>
       </c>
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
@@ -11031,106 +10950,106 @@
         <v>36</v>
       </c>
       <c r="P31" s="3">
-        <v>0.88571900000000003</v>
+        <v>0.879301</v>
       </c>
       <c r="Q31" s="3">
-        <v>0.94672699999999999</v>
+        <v>0.95256600000000002</v>
       </c>
       <c r="R31" s="3">
-        <v>0.89977600000000002</v>
+        <v>0.88481100000000001</v>
       </c>
       <c r="S31" s="3">
-        <v>0.89974799999999999</v>
+        <v>0.89249000000000001</v>
       </c>
       <c r="T31" s="3">
         <v>1</v>
       </c>
       <c r="U31" s="3">
-        <v>0.67294900000000002</v>
+        <v>0.77132100000000003</v>
       </c>
       <c r="V31" s="3">
-        <v>0.75834500000000005</v>
+        <v>0.87681500000000001</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" thickBot="1">
       <c r="A32" s="75"/>
       <c r="B32" s="78"/>
       <c r="C32" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="18">
-        <v>0.79360399999999998</v>
+        <v>0.84972000000000003</v>
       </c>
       <c r="E32" s="18">
-        <v>0.70596700000000001</v>
+        <v>0.83363500000000001</v>
       </c>
       <c r="F32" s="18">
-        <v>0.72761500000000001</v>
+        <v>0.84924100000000002</v>
       </c>
       <c r="G32" s="18">
-        <v>0.78804600000000002</v>
+        <v>0.85362400000000005</v>
       </c>
       <c r="H32" s="18">
-        <v>0.67294900000000002</v>
+        <v>0.77132100000000003</v>
       </c>
       <c r="I32" s="18">
         <v>1</v>
       </c>
       <c r="J32" s="18">
-        <v>0.48848200000000003</v>
+        <v>0.80496000000000001</v>
       </c>
       <c r="K32" s="77"/>
       <c r="L32" s="77"/>
       <c r="M32" s="75"/>
       <c r="N32" s="75"/>
       <c r="O32" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P32" s="5">
-        <v>0.79360399999999998</v>
+        <v>0.84972000000000003</v>
       </c>
       <c r="Q32" s="5">
-        <v>0.70596700000000001</v>
+        <v>0.83363500000000001</v>
       </c>
       <c r="R32" s="5">
-        <v>0.72761500000000001</v>
+        <v>0.84924100000000002</v>
       </c>
       <c r="S32" s="5">
-        <v>0.78804600000000002</v>
+        <v>0.85362400000000005</v>
       </c>
       <c r="T32" s="5">
-        <v>0.67294900000000002</v>
+        <v>0.77132100000000003</v>
       </c>
       <c r="U32" s="5">
         <v>1</v>
       </c>
       <c r="V32" s="5">
-        <v>0.48848200000000003</v>
+        <v>0.80496000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1">
       <c r="A33" s="75"/>
       <c r="B33" s="78"/>
       <c r="C33" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="19">
-        <v>0.80124099999999998</v>
+        <v>0.97443400000000002</v>
       </c>
       <c r="E33" s="19">
-        <v>0.79789200000000005</v>
+        <v>0.92014899999999999</v>
       </c>
       <c r="F33" s="19">
-        <v>0.79125699999999999</v>
+        <v>0.92488099999999995</v>
       </c>
       <c r="G33" s="19">
-        <v>0.80563799999999997</v>
+        <v>0.97505699999999995</v>
       </c>
       <c r="H33" s="19">
-        <v>0.75834500000000005</v>
+        <v>0.87681500000000001</v>
       </c>
       <c r="I33" s="19">
-        <v>0.48848200000000003</v>
+        <v>0.80496000000000001</v>
       </c>
       <c r="J33" s="19">
         <v>1</v>
@@ -11140,25 +11059,25 @@
       <c r="M33" s="75"/>
       <c r="N33" s="75"/>
       <c r="O33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P33" s="3">
-        <v>0.80124099999999998</v>
+        <v>0.97443400000000002</v>
       </c>
       <c r="Q33" s="3">
-        <v>0.79789200000000005</v>
+        <v>0.92014899999999999</v>
       </c>
       <c r="R33" s="3">
-        <v>0.79125699999999999</v>
+        <v>0.92488099999999995</v>
       </c>
       <c r="S33" s="3">
-        <v>0.80563799999999997</v>
+        <v>0.97505699999999995</v>
       </c>
       <c r="T33" s="3">
-        <v>0.75834500000000005</v>
+        <v>0.87681500000000001</v>
       </c>
       <c r="U33" s="3">
-        <v>0.48848200000000003</v>
+        <v>0.80496000000000001</v>
       </c>
       <c r="V33" s="3">
         <v>1</v>
@@ -11237,7 +11156,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11286,13 +11205,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="23">
-        <v>0.98348500000000005</v>
+        <v>1.015897</v>
       </c>
       <c r="D3" s="23">
-        <v>0.98634100000000002</v>
+        <v>0.99970400000000004</v>
       </c>
       <c r="E3" s="24">
-        <v>0.973414</v>
+        <v>0.99144299999999996</v>
       </c>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -11300,13 +11219,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0.98348500000000005</v>
+        <v>1.015897</v>
       </c>
       <c r="K3" s="3">
-        <v>0.98634100000000002</v>
+        <v>0.99970400000000004</v>
       </c>
       <c r="L3" s="3">
-        <v>0.973414</v>
+        <v>0.99144299999999996</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
@@ -11315,13 +11234,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="25">
-        <v>1.1719710000000001</v>
+        <v>0.87046299999999999</v>
       </c>
       <c r="D4" s="25">
-        <v>1.122517</v>
+        <v>1.021342</v>
       </c>
       <c r="E4" s="26">
-        <v>1.183859</v>
+        <v>1.0789200000000001</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="75"/>
@@ -11329,13 +11248,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>1.1719710000000001</v>
+        <v>0.87046299999999999</v>
       </c>
       <c r="K4" s="5">
-        <v>1.122517</v>
+        <v>1.021342</v>
       </c>
       <c r="L4" s="5">
-        <v>1.183859</v>
+        <v>1.0789200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1">
@@ -11344,13 +11263,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="23">
-        <v>1.098066</v>
+        <v>0.79186199999999995</v>
       </c>
       <c r="D5" s="23">
-        <v>1.1561809999999999</v>
+        <v>0.945079</v>
       </c>
       <c r="E5" s="24">
-        <v>1.1964159999999999</v>
+        <v>1.1005990000000001</v>
       </c>
       <c r="F5" s="75"/>
       <c r="G5" s="75"/>
@@ -11358,13 +11277,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="3">
-        <v>1.098066</v>
+        <v>0.79186199999999995</v>
       </c>
       <c r="K5" s="3">
-        <v>1.1561809999999999</v>
+        <v>0.945079</v>
       </c>
       <c r="L5" s="3">
-        <v>1.1964159999999999</v>
+        <v>1.1005990000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
@@ -11402,10 +11321,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="23">
-        <v>0.88425699999999996</v>
+        <v>0.92078599999999999</v>
       </c>
       <c r="D7" s="23">
-        <v>0.93723800000000002</v>
+        <v>0.90280199999999999</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>17</v>
@@ -11416,10 +11335,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>0.88425699999999996</v>
+        <v>0.92078599999999999</v>
       </c>
       <c r="K7" s="3">
-        <v>0.93723800000000002</v>
+        <v>0.90280199999999999</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
@@ -11431,10 +11350,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="25">
-        <v>1.265379</v>
+        <v>1.225779</v>
       </c>
       <c r="D8" s="25">
-        <v>1.1508240000000001</v>
+        <v>1.246156</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>17</v>
@@ -11445,10 +11364,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="5">
-        <v>1.265379</v>
+        <v>1.225779</v>
       </c>
       <c r="K8" s="5">
-        <v>1.1508240000000001</v>
+        <v>1.246156</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>17</v>
@@ -11460,10 +11379,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="23">
-        <v>1.134255</v>
+        <v>0.68332899999999996</v>
       </c>
       <c r="D9" s="23">
-        <v>1.118066</v>
+        <v>0.90431399999999995</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>17</v>
@@ -11474,10 +11393,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="3">
-        <v>1.134255</v>
+        <v>0.68332899999999996</v>
       </c>
       <c r="K9" s="3">
-        <v>1.118066</v>
+        <v>0.90431399999999995</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>17</v>
@@ -11489,13 +11408,13 @@
         <v>36</v>
       </c>
       <c r="C10" s="25">
-        <v>1.1734150000000001</v>
+        <v>0.67632099999999995</v>
       </c>
       <c r="D10" s="25">
-        <v>1.1250610000000001</v>
+        <v>0.91346899999999998</v>
       </c>
       <c r="E10" s="26">
-        <v>1.196833</v>
+        <v>1.052608</v>
       </c>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
@@ -11503,13 +11422,13 @@
         <v>36</v>
       </c>
       <c r="J10" s="5">
-        <v>1.1734150000000001</v>
+        <v>0.67632099999999995</v>
       </c>
       <c r="K10" s="5">
-        <v>1.1250610000000001</v>
+        <v>0.91346899999999998</v>
       </c>
       <c r="L10" s="5">
-        <v>1.196833</v>
+        <v>1.052608</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
@@ -11518,13 +11437,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="27">
-        <v>0.33835799999999999</v>
+        <v>0.21738199999999999</v>
       </c>
       <c r="D11" s="27">
-        <v>0.60955000000000004</v>
+        <v>0.29272300000000001</v>
       </c>
       <c r="E11" s="28">
-        <v>0.61463199999999996</v>
+        <v>0.59736100000000003</v>
       </c>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
@@ -11532,13 +11451,13 @@
         <v>7</v>
       </c>
       <c r="J11" s="3">
-        <v>0.33835799999999999</v>
+        <v>0.21738199999999999</v>
       </c>
       <c r="K11" s="3">
-        <v>0.60955000000000004</v>
+        <v>0.29272300000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>0.61463199999999996</v>
+        <v>0.59736100000000003</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
@@ -11547,13 +11466,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="25">
-        <v>1.084425</v>
+        <v>1.1490689999999999</v>
       </c>
       <c r="D12" s="25">
-        <v>1.0096810000000001</v>
+        <v>1.118268</v>
       </c>
       <c r="E12" s="26">
-        <v>0.81871499999999997</v>
+        <v>1.012332</v>
       </c>
       <c r="F12" s="75"/>
       <c r="G12" s="75"/>
@@ -11561,13 +11480,13 @@
         <v>8</v>
       </c>
       <c r="J12" s="5">
-        <v>1.084425</v>
+        <v>1.1490689999999999</v>
       </c>
       <c r="K12" s="5">
-        <v>1.0096810000000001</v>
+        <v>1.118268</v>
       </c>
       <c r="L12" s="5">
-        <v>0.81871499999999997</v>
+        <v>1.012332</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -11625,7 +11544,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11654,7 +11573,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -11663,22 +11582,22 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="L2" s="75"/>
       <c r="M2" s="75"/>
@@ -11697,34 +11616,34 @@
         <v>26</v>
       </c>
       <c r="B3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" s="75"/>
       <c r="M3" s="75"/>
@@ -11743,34 +11662,34 @@
         <v>27</v>
       </c>
       <c r="B4" s="5">
-        <v>1.598E-3</v>
+        <v>1.4759E-2</v>
       </c>
       <c r="C4" s="5">
-        <v>-4.45E-3</v>
+        <v>1.6133000000000002E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>-8.4569999999999992E-3</v>
+        <v>5.5989999999999998E-3</v>
       </c>
       <c r="E4" s="5">
-        <v>-6.4570000000000001E-3</v>
+        <v>9.5259999999999997E-3</v>
       </c>
       <c r="F4" s="5">
-        <v>-2.5010000000000002E-3</v>
+        <v>2.307E-3</v>
       </c>
       <c r="G4" s="5">
-        <v>-4.7759999999999999E-3</v>
+        <v>1.825E-3</v>
       </c>
       <c r="H4" s="5">
-        <v>-3.1879999999999999E-3</v>
+        <v>-1.5399999999999999E-3</v>
       </c>
       <c r="I4" s="5">
-        <v>-3.0330000000000001E-3</v>
+        <v>7.5500000000000003E-4</v>
       </c>
       <c r="J4" s="5">
-        <v>-5.4999999999999997E-3</v>
+        <v>4.3680000000000004E-3</v>
       </c>
       <c r="K4" s="5">
-        <v>-1.0418E-2</v>
+        <v>4.0039999999999997E-3</v>
       </c>
       <c r="L4" s="75"/>
       <c r="M4" s="75"/>
@@ -11789,34 +11708,34 @@
         <v>28</v>
       </c>
       <c r="B5" s="3">
-        <v>3.9465E-2</v>
+        <v>5.9017E-2</v>
       </c>
       <c r="C5" s="3">
-        <v>2.784E-2</v>
+        <v>5.2795000000000002E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>4.0170999999999998E-2</v>
+        <v>4.2694000000000003E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>4.2578999999999999E-2</v>
+        <v>4.3652999999999997E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>2.9374000000000001E-2</v>
+        <v>4.1006000000000001E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>2.3791E-2</v>
+        <v>3.2937000000000001E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>3.6559000000000001E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>2.1086000000000001E-2</v>
+        <v>2.7404000000000001E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>2.6019E-2</v>
+        <v>2.8226999999999999E-2</v>
       </c>
       <c r="K5" s="3">
-        <v>2.9939E-2</v>
+        <v>2.0192000000000002E-2</v>
       </c>
       <c r="L5" s="75"/>
       <c r="M5" s="75"/>
@@ -11831,38 +11750,38 @@
       <c r="V5" s="75"/>
     </row>
     <row r="6" spans="1:22" s="47" customFormat="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="45">
-        <v>-0.103451</v>
+        <v>-8.9640999999999998E-2</v>
       </c>
       <c r="C6" s="45">
-        <v>-5.3344000000000003E-2</v>
+        <v>-0.120839</v>
       </c>
       <c r="D6" s="45">
-        <v>-0.121966</v>
+        <v>-0.127891</v>
       </c>
       <c r="E6" s="45">
-        <v>-0.13253799999999999</v>
+        <v>-0.12877</v>
       </c>
       <c r="F6" s="45">
-        <v>-7.0578000000000002E-2</v>
+        <v>-8.9859999999999995E-2</v>
       </c>
       <c r="G6" s="45">
-        <v>-6.6000000000000003E-2</v>
+        <v>-6.6581000000000001E-2</v>
       </c>
       <c r="H6" s="45">
-        <v>-0.13519</v>
+        <v>-0.10496</v>
       </c>
       <c r="I6" s="45">
-        <v>-6.5490999999999994E-2</v>
+        <v>-5.6299000000000002E-2</v>
       </c>
       <c r="J6" s="45">
-        <v>-8.5936999999999999E-2</v>
+        <v>-5.4752000000000002E-2</v>
       </c>
       <c r="K6" s="45">
-        <v>-7.7258999999999994E-2</v>
+        <v>-4.5527999999999999E-2</v>
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="87"/>
@@ -11881,34 +11800,34 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="3">
-        <v>-2.1264999999999999E-2</v>
+        <v>-1.1365999999999999E-2</v>
       </c>
       <c r="C7" s="3">
-        <v>-1.6674000000000001E-2</v>
+        <v>-1.2952999999999999E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>-2.9207E-2</v>
+        <v>-1.0999E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>-2.5316000000000002E-2</v>
+        <v>-7.437E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>-1.4286E-2</v>
+        <v>-1.6156E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>-1.6517E-2</v>
+        <v>-1.8776999999999999E-2</v>
       </c>
       <c r="H7" s="3">
-        <v>-1.8922999999999999E-2</v>
+        <v>-2.0927000000000001E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>-8.9409999999999993E-3</v>
+        <v>-1.5914000000000001E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>-1.9425000000000001E-2</v>
+        <v>-1.0544E-2</v>
       </c>
       <c r="K7" s="3">
-        <v>-2.3814999999999999E-2</v>
+        <v>-6.0860000000000003E-3</v>
       </c>
       <c r="L7" s="75"/>
       <c r="M7" s="75"/>
@@ -11927,34 +11846,34 @@
         <v>0.5</v>
       </c>
       <c r="B8" s="5">
-        <v>5.463E-3</v>
+        <v>1.8738000000000001E-2</v>
       </c>
       <c r="C8" s="5">
-        <v>-5.9959999999999996E-3</v>
+        <v>1.47E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>-8.6409999999999994E-3</v>
+        <v>-7.3399999999999995E-4</v>
       </c>
       <c r="E8" s="5">
-        <v>-8.3529999999999993E-3</v>
+        <v>5.6140000000000001E-3</v>
       </c>
       <c r="F8" s="5">
-        <v>-2.764E-3</v>
+        <v>-5.0200000000000002E-3</v>
       </c>
       <c r="G8" s="5">
-        <v>-1.305E-3</v>
+        <v>-6.4999999999999994E-5</v>
       </c>
       <c r="H8" s="5">
-        <v>-3.2400000000000001E-4</v>
+        <v>-8.3549999999999996E-3</v>
       </c>
       <c r="I8" s="5">
-        <v>6.5799999999999995E-4</v>
+        <v>-3.346E-3</v>
       </c>
       <c r="J8" s="5">
-        <v>-6.4749999999999999E-3</v>
+        <v>4.57E-4</v>
       </c>
       <c r="K8" s="5">
-        <v>-6.0520000000000001E-3</v>
+        <v>9.01E-4</v>
       </c>
       <c r="L8" s="75"/>
       <c r="M8" s="75"/>
@@ -11973,34 +11892,34 @@
         <v>0.75</v>
       </c>
       <c r="B9" s="3">
-        <v>1.5651000000000002E-2</v>
+        <v>3.5546000000000001E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>4.6870000000000002E-3</v>
+        <v>2.9484E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>1.1445E-2</v>
+        <v>2.2804999999999999E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>1.3722E-2</v>
+        <v>2.2522E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>9.5350000000000001E-3</v>
+        <v>2.0676E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>7.6629999999999997E-3</v>
+        <v>9.8980000000000005E-3</v>
       </c>
       <c r="H9" s="3">
-        <v>1.8748999999999998E-2</v>
+        <v>1.7152000000000001E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>2.9870000000000001E-3</v>
+        <v>1.0873000000000001E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>1.4716999999999999E-2</v>
+        <v>2.1340999999999999E-2</v>
       </c>
       <c r="K9" s="3">
-        <v>4.1269999999999996E-3</v>
+        <v>1.8193999999999998E-2</v>
       </c>
       <c r="L9" s="75"/>
       <c r="M9" s="75"/>
@@ -12015,38 +11934,38 @@
       <c r="V9" s="75"/>
     </row>
     <row r="10" spans="1:22" s="47" customFormat="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="45">
-        <v>0.115369</v>
+        <v>0.23349</v>
       </c>
       <c r="C10" s="45">
-        <v>0.101243</v>
+        <v>0.17960100000000001</v>
       </c>
       <c r="D10" s="45">
-        <v>9.4320000000000001E-2</v>
+        <v>0.12667600000000001</v>
       </c>
       <c r="E10" s="45">
-        <v>9.2645000000000005E-2</v>
+        <v>0.114955</v>
       </c>
       <c r="F10" s="45">
-        <v>8.2364000000000007E-2</v>
+        <v>0.102308</v>
       </c>
       <c r="G10" s="45">
-        <v>6.6669000000000006E-2</v>
+        <v>8.7387999999999993E-2</v>
       </c>
       <c r="H10" s="45">
-        <v>5.2416999999999998E-2</v>
+        <v>8.0332000000000001E-2</v>
       </c>
       <c r="I10" s="45">
-        <v>5.0626999999999998E-2</v>
+        <v>7.6641000000000001E-2</v>
       </c>
       <c r="J10" s="45">
-        <v>4.4553000000000002E-2</v>
+        <v>5.8290000000000002E-2</v>
       </c>
       <c r="K10" s="45">
-        <v>4.1590000000000002E-2</v>
+        <v>4.5062999999999999E-2</v>
       </c>
       <c r="L10" s="87"/>
       <c r="M10" s="87"/>
@@ -12086,34 +12005,34 @@
       <c r="U12" s="75"/>
       <c r="V12" s="75"/>
     </row>
-    <row r="13" spans="1:22" ht="24">
+    <row r="13" spans="1:22">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>7</v>
@@ -12135,34 +12054,34 @@
         <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L14" s="75"/>
       <c r="M14" s="75"/>
@@ -12181,34 +12100,34 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>2.3909999999999999E-3</v>
+        <v>9.1020000000000007E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>1.7570000000000001E-3</v>
+        <v>6.404E-3</v>
       </c>
       <c r="D15" s="5">
-        <v>-3.0730000000000002E-3</v>
+        <v>4.548E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>-7.4590000000000004E-3</v>
+        <v>4.6369999999999996E-3</v>
       </c>
       <c r="F15" s="5">
-        <v>-5.849E-3</v>
+        <v>4.0720000000000001E-3</v>
       </c>
       <c r="G15" s="5">
-        <v>-4.235E-3</v>
+        <v>6.1089999999999998E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>-3.9820000000000003E-3</v>
+        <v>4.3569999999999998E-3</v>
       </c>
       <c r="I15" s="5">
-        <v>-4.4349999999999997E-3</v>
+        <v>6.8149999999999999E-3</v>
       </c>
       <c r="J15" s="5">
-        <v>-4.5339999999999998E-3</v>
+        <v>4.1910000000000003E-3</v>
       </c>
       <c r="K15" s="5">
-        <v>-3.2049999999999999E-3</v>
+        <v>3.9259999999999998E-3</v>
       </c>
       <c r="L15" s="75"/>
       <c r="M15" s="75"/>
@@ -12227,34 +12146,34 @@
         <v>28</v>
       </c>
       <c r="B16" s="3">
-        <v>4.7323999999999998E-2</v>
+        <v>4.3562999999999998E-2</v>
       </c>
       <c r="C16" s="3">
-        <v>4.4979999999999999E-2</v>
+        <v>4.2941E-2</v>
       </c>
       <c r="D16" s="3">
-        <v>4.2507000000000003E-2</v>
+        <v>3.5083000000000003E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>4.2269000000000001E-2</v>
+        <v>3.4547000000000001E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>4.3650000000000001E-2</v>
+        <v>3.1871999999999998E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>4.0106000000000003E-2</v>
+        <v>3.2467000000000003E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>3.0306E-2</v>
+        <v>2.9412000000000001E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>3.3956E-2</v>
+        <v>2.7526999999999999E-2</v>
       </c>
       <c r="J16" s="3">
-        <v>3.3370999999999998E-2</v>
+        <v>2.7271E-2</v>
       </c>
       <c r="K16" s="3">
-        <v>2.0764999999999999E-2</v>
+        <v>1.9970000000000002E-2</v>
       </c>
       <c r="L16" s="75"/>
       <c r="M16" s="75"/>
@@ -12269,38 +12188,38 @@
       <c r="V16" s="75"/>
     </row>
     <row r="17" spans="1:22" s="47" customFormat="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="45">
-        <v>-0.107073</v>
+        <v>-0.12877</v>
       </c>
       <c r="C17" s="45">
-        <v>-0.1077</v>
+        <v>-0.12256</v>
       </c>
       <c r="D17" s="45">
-        <v>-0.11748500000000001</v>
+        <v>-0.105154</v>
       </c>
       <c r="E17" s="45">
-        <v>-0.13253799999999999</v>
+        <v>-0.103215</v>
       </c>
       <c r="F17" s="45">
-        <v>-0.137573</v>
+        <v>-9.4979999999999995E-2</v>
       </c>
       <c r="G17" s="45">
-        <v>-0.123649</v>
+        <v>-8.3468000000000001E-2</v>
       </c>
       <c r="H17" s="45">
-        <v>-9.7628000000000006E-2</v>
+        <v>-8.8509000000000004E-2</v>
       </c>
       <c r="I17" s="45">
-        <v>-0.10847</v>
+        <v>-7.4005000000000001E-2</v>
       </c>
       <c r="J17" s="45">
-        <v>-0.107289</v>
+        <v>-7.0626999999999995E-2</v>
       </c>
       <c r="K17" s="45">
-        <v>-6.5490999999999994E-2</v>
+        <v>-4.5527999999999999E-2</v>
       </c>
       <c r="L17" s="87"/>
       <c r="M17" s="87"/>
@@ -12315,38 +12234,38 @@
       <c r="V17" s="87"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>0.25</v>
       </c>
-      <c r="B18" s="3">
-        <v>-2.4048E-2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>-2.0253E-2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-2.9767999999999999E-2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-2.7688000000000001E-2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3.2048E-2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3.0217000000000001E-2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1.3067E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1.8828999999999999E-2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1.7149999999999999E-2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-9.2849999999999999E-3</v>
+      <c r="B18" s="5">
+        <v>-7.437E-3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-1.6900999999999999E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-1.1183E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1.1053E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-8.1930000000000006E-3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>-9.9229999999999995E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>-1.0825E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>-8.685E-3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-9.0170000000000007E-3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>-4.7270000000000003E-3</v>
       </c>
       <c r="L18" s="75"/>
       <c r="M18" s="75"/>
@@ -12365,34 +12284,34 @@
         <v>0.5</v>
       </c>
       <c r="B19" s="5">
-        <v>5.3810000000000004E-3</v>
+        <v>5.6140000000000001E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>5.424E-3</v>
+        <v>2.7369999999999998E-3</v>
       </c>
       <c r="D19" s="5">
-        <v>-1.1169999999999999E-3</v>
+        <v>1.248E-3</v>
       </c>
       <c r="E19" s="5">
-        <v>-8.6540000000000002E-3</v>
+        <v>2.1029999999999998E-3</v>
       </c>
       <c r="F19" s="5">
-        <v>-3.4650000000000002E-3</v>
+        <v>1.441E-3</v>
       </c>
       <c r="G19" s="5">
-        <v>2.2800000000000001E-4</v>
+        <v>4.4190000000000002E-3</v>
       </c>
       <c r="H19" s="5">
-        <v>-2.941E-3</v>
+        <v>7.1919999999999996E-3</v>
       </c>
       <c r="I19" s="5">
-        <v>-2.8639999999999998E-3</v>
+        <v>1.404E-2</v>
       </c>
       <c r="J19" s="5">
-        <v>-3.9899999999999996E-3</v>
+        <v>5.4510000000000001E-3</v>
       </c>
       <c r="K19" s="5">
-        <v>1.66E-4</v>
+        <v>9.01E-4</v>
       </c>
       <c r="L19" s="75"/>
       <c r="M19" s="75"/>
@@ -12411,34 +12330,34 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="3">
-        <v>3.1958E-2</v>
+        <v>2.1368000000000002E-2</v>
       </c>
       <c r="C20" s="3">
-        <v>2.6464000000000001E-2</v>
+        <v>2.5801999999999999E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>2.4235E-2</v>
+        <v>1.6787E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>1.3114000000000001E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>2.1384E-2</v>
+        <v>1.4487E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>1.9845999999999999E-2</v>
+        <v>2.2655000000000002E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>9.8340000000000007E-3</v>
+        <v>1.9059E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>1.0984000000000001E-2</v>
+        <v>1.8508E-2</v>
       </c>
       <c r="J20" s="3">
-        <v>9.8619999999999992E-3</v>
+        <v>2.1402999999999998E-2</v>
       </c>
       <c r="K20" s="3">
-        <v>2.9359999999999998E-3</v>
+        <v>1.6733999999999999E-2</v>
       </c>
       <c r="L20" s="75"/>
       <c r="M20" s="75"/>
@@ -12453,38 +12372,38 @@
       <c r="V20" s="75"/>
     </row>
     <row r="21" spans="1:22" s="47" customFormat="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="45">
-        <v>0.13431799999999999</v>
+        <v>0.114955</v>
       </c>
       <c r="C21" s="45">
-        <v>0.122128</v>
+        <v>0.110015</v>
       </c>
       <c r="D21" s="45">
-        <v>9.8230999999999999E-2</v>
+        <v>9.9001000000000006E-2</v>
       </c>
       <c r="E21" s="45">
-        <v>9.2645000000000005E-2</v>
+        <v>9.7697000000000006E-2</v>
       </c>
       <c r="F21" s="45">
-        <v>8.3362000000000006E-2</v>
+        <v>9.3064999999999995E-2</v>
       </c>
       <c r="G21" s="45">
-        <v>6.9027000000000005E-2</v>
+        <v>8.9244000000000004E-2</v>
       </c>
       <c r="H21" s="45">
-        <v>6.4613000000000004E-2</v>
+        <v>7.4505000000000002E-2</v>
       </c>
       <c r="I21" s="45">
-        <v>5.9887000000000003E-2</v>
+        <v>6.9554000000000005E-2</v>
       </c>
       <c r="J21" s="45">
-        <v>5.6703999999999997E-2</v>
+        <v>6.5363000000000004E-2</v>
       </c>
       <c r="K21" s="45">
-        <v>5.0626999999999998E-2</v>
+        <v>4.5062999999999999E-2</v>
       </c>
       <c r="L21" s="87"/>
       <c r="M21" s="87"/>
